--- a/1차_가공/한국과학기술원 22년 1학기 1차 가공 완료.xlsx
+++ b/1차_가공/한국과학기술원 22년 1학기 1차 가공 완료.xlsx
@@ -6192,7 +6192,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>360</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -6262,7 +6262,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>361</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>362</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -6332,7 +6332,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>363</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -6402,7 +6402,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>367</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>368</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -6542,7 +6542,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>369</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -6612,7 +6612,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>371</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>372</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -6682,7 +6682,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>373</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>374</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -6752,7 +6752,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>375</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>376</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>377</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>378</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>379</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>380</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -6962,7 +6962,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>381</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -6997,7 +6997,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>382</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>383</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
@@ -7067,7 +7067,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>384</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>385</v>
+        <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -7137,7 +7137,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>387</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -7207,7 +7207,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -7242,7 +7242,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>780</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>781</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -7318,7 +7318,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>782</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -7356,7 +7356,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>783</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>784</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
@@ -7429,7 +7429,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>785</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
@@ -7464,7 +7464,7 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>786</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -7502,7 +7502,7 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>787</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -7540,7 +7540,7 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>788</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
@@ -7578,7 +7578,7 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>789</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -7613,7 +7613,7 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>1089</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>1090</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
@@ -7683,7 +7683,7 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>1091</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
@@ -7718,7 +7718,7 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>1092</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -7753,7 +7753,7 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>1093</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -7788,7 +7788,7 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>1094</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>1095</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -7858,7 +7858,7 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>1096</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -7893,7 +7893,7 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>1097</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -7928,7 +7928,7 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>1098</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -7963,7 +7963,7 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>1099</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -7998,7 +7998,7 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>1100</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
@@ -8033,7 +8033,7 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>1101</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -8068,7 +8068,7 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>1102</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>1103</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
@@ -8138,7 +8138,7 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>1104</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
@@ -8173,7 +8173,7 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>1105</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
@@ -8208,7 +8208,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>1106</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
@@ -8243,7 +8243,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>1107</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
@@ -8278,7 +8278,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>1108</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -8313,7 +8313,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>1109</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -8348,7 +8348,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>1110</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>1111</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -8418,7 +8418,7 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="1">
-        <v>1112</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -8453,7 +8453,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="1">
-        <v>1113</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -8488,7 +8488,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
-        <v>1114</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>13</v>
@@ -8523,7 +8523,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
-        <v>1115</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>13</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="1">
-        <v>1116</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>13</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" s="1">
-        <v>1117</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
-        <v>1118</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>13</v>
@@ -8663,7 +8663,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" s="1">
-        <v>1119</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>13</v>
@@ -8698,7 +8698,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" s="1">
-        <v>1178</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>13</v>
@@ -8736,7 +8736,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" s="1">
-        <v>1179</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
@@ -8774,7 +8774,7 @@
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
-        <v>1180</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>13</v>
@@ -8812,7 +8812,7 @@
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
-        <v>1181</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>13</v>
@@ -8850,7 +8850,7 @@
     </row>
     <row r="77" spans="1:14">
       <c r="A77" s="1">
-        <v>1182</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>13</v>
@@ -8888,7 +8888,7 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" s="1">
-        <v>1183</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>13</v>
@@ -8926,7 +8926,7 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" s="1">
-        <v>1184</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>13</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
-        <v>1185</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>13</v>
@@ -8999,7 +8999,7 @@
     </row>
     <row r="81" spans="1:14">
       <c r="A81" s="1">
-        <v>1186</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>13</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
-        <v>1187</v>
+        <v>80</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
@@ -9075,7 +9075,7 @@
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
-        <v>1188</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>13</v>
@@ -9113,7 +9113,7 @@
     </row>
     <row r="84" spans="1:14">
       <c r="A84" s="1">
-        <v>1189</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="85" spans="1:14">
       <c r="A85" s="1">
-        <v>1190</v>
+        <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>13</v>
@@ -9189,7 +9189,7 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
-        <v>1191</v>
+        <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="87" spans="1:14">
       <c r="A87" s="1">
-        <v>1192</v>
+        <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
-        <v>1193</v>
+        <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>13</v>
@@ -9303,7 +9303,7 @@
     </row>
     <row r="89" spans="1:14">
       <c r="A89" s="1">
-        <v>1194</v>
+        <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>13</v>
@@ -9341,7 +9341,7 @@
     </row>
     <row r="90" spans="1:14">
       <c r="A90" s="1">
-        <v>1195</v>
+        <v>88</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
@@ -9379,7 +9379,7 @@
     </row>
     <row r="91" spans="1:14">
       <c r="A91" s="1">
-        <v>1196</v>
+        <v>89</v>
       </c>
       <c r="B91" t="s">
         <v>13</v>
@@ -9417,7 +9417,7 @@
     </row>
     <row r="92" spans="1:14">
       <c r="A92" s="1">
-        <v>1197</v>
+        <v>90</v>
       </c>
       <c r="B92" t="s">
         <v>13</v>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="93" spans="1:14">
       <c r="A93" s="1">
-        <v>1198</v>
+        <v>91</v>
       </c>
       <c r="B93" t="s">
         <v>13</v>
@@ -9493,7 +9493,7 @@
     </row>
     <row r="94" spans="1:14">
       <c r="A94" s="1">
-        <v>1199</v>
+        <v>92</v>
       </c>
       <c r="B94" t="s">
         <v>13</v>
@@ -9531,7 +9531,7 @@
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
-        <v>1200</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>13</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
-        <v>1201</v>
+        <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>13</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="97" spans="1:14">
       <c r="A97" s="1">
-        <v>1202</v>
+        <v>95</v>
       </c>
       <c r="B97" t="s">
         <v>13</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
-        <v>1209</v>
+        <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>13</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
-        <v>1262</v>
+        <v>97</v>
       </c>
       <c r="B99" t="s">
         <v>13</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="100" spans="1:14">
       <c r="A100" s="1">
-        <v>1272</v>
+        <v>98</v>
       </c>
       <c r="B100" t="s">
         <v>13</v>
@@ -9690,7 +9690,7 @@
     </row>
     <row r="101" spans="1:14">
       <c r="A101" s="1">
-        <v>1273</v>
+        <v>99</v>
       </c>
       <c r="B101" t="s">
         <v>13</v>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
-        <v>1274</v>
+        <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
@@ -9766,7 +9766,7 @@
     </row>
     <row r="103" spans="1:14">
       <c r="A103" s="1">
-        <v>1275</v>
+        <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>13</v>
@@ -9804,7 +9804,7 @@
     </row>
     <row r="104" spans="1:14">
       <c r="A104" s="1">
-        <v>1276</v>
+        <v>102</v>
       </c>
       <c r="B104" t="s">
         <v>13</v>
@@ -9842,7 +9842,7 @@
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
-        <v>1277</v>
+        <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>13</v>
@@ -9880,7 +9880,7 @@
     </row>
     <row r="106" spans="1:14">
       <c r="A106" s="1">
-        <v>1278</v>
+        <v>104</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
@@ -9918,7 +9918,7 @@
     </row>
     <row r="107" spans="1:14">
       <c r="A107" s="1">
-        <v>1279</v>
+        <v>105</v>
       </c>
       <c r="B107" t="s">
         <v>13</v>
@@ -9956,7 +9956,7 @@
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
-        <v>1280</v>
+        <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
@@ -9994,7 +9994,7 @@
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
-        <v>1281</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
-        <v>1282</v>
+        <v>108</v>
       </c>
       <c r="B110" t="s">
         <v>13</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="111" spans="1:14">
       <c r="A111" s="1">
-        <v>1283</v>
+        <v>109</v>
       </c>
       <c r="B111" t="s">
         <v>13</v>
@@ -10108,7 +10108,7 @@
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
-        <v>1284</v>
+        <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>13</v>
@@ -10146,7 +10146,7 @@
     </row>
     <row r="113" spans="1:14">
       <c r="A113" s="1">
-        <v>1285</v>
+        <v>111</v>
       </c>
       <c r="B113" t="s">
         <v>13</v>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
-        <v>1286</v>
+        <v>112</v>
       </c>
       <c r="B114" t="s">
         <v>13</v>
@@ -10219,7 +10219,7 @@
     </row>
     <row r="115" spans="1:14">
       <c r="A115" s="1">
-        <v>1287</v>
+        <v>113</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
-        <v>1288</v>
+        <v>114</v>
       </c>
       <c r="B116" t="s">
         <v>13</v>
@@ -10295,7 +10295,7 @@
     </row>
     <row r="117" spans="1:14">
       <c r="A117" s="1">
-        <v>1289</v>
+        <v>115</v>
       </c>
       <c r="B117" t="s">
         <v>13</v>
@@ -10333,7 +10333,7 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" s="1">
-        <v>1290</v>
+        <v>116</v>
       </c>
       <c r="B118" t="s">
         <v>13</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
-        <v>1291</v>
+        <v>117</v>
       </c>
       <c r="B119" t="s">
         <v>13</v>
@@ -10409,7 +10409,7 @@
     </row>
     <row r="120" spans="1:14">
       <c r="A120" s="1">
-        <v>1292</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
         <v>13</v>
@@ -10447,7 +10447,7 @@
     </row>
     <row r="121" spans="1:14">
       <c r="A121" s="1">
-        <v>1293</v>
+        <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>13</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
-        <v>1294</v>
+        <v>120</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
-        <v>1295</v>
+        <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>13</v>
@@ -10561,7 +10561,7 @@
     </row>
     <row r="124" spans="1:14">
       <c r="A124" s="1">
-        <v>1296</v>
+        <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>13</v>
@@ -10599,7 +10599,7 @@
     </row>
     <row r="125" spans="1:14">
       <c r="A125" s="1">
-        <v>1297</v>
+        <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>13</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="126" spans="1:14">
       <c r="A126" s="1">
-        <v>1298</v>
+        <v>124</v>
       </c>
       <c r="B126" t="s">
         <v>13</v>
@@ -10675,7 +10675,7 @@
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
-        <v>1299</v>
+        <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>13</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
-        <v>1300</v>
+        <v>126</v>
       </c>
       <c r="B128" t="s">
         <v>13</v>
@@ -10745,7 +10745,7 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" s="1">
-        <v>1334</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
         <v>13</v>
@@ -10780,7 +10780,7 @@
     </row>
     <row r="130" spans="1:14">
       <c r="A130" s="1">
-        <v>1360</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
         <v>13</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="131" spans="1:14">
       <c r="A131" s="1">
-        <v>1366</v>
+        <v>129</v>
       </c>
       <c r="B131" t="s">
         <v>13</v>
@@ -10853,7 +10853,7 @@
     </row>
     <row r="132" spans="1:14">
       <c r="A132" s="1">
-        <v>1383</v>
+        <v>130</v>
       </c>
       <c r="B132" t="s">
         <v>13</v>
@@ -10888,7 +10888,7 @@
     </row>
     <row r="133" spans="1:14">
       <c r="A133" s="1">
-        <v>1420</v>
+        <v>131</v>
       </c>
       <c r="B133" t="s">
         <v>13</v>
@@ -10923,7 +10923,7 @@
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
-        <v>1449</v>
+        <v>132</v>
       </c>
       <c r="B134" t="s">
         <v>13</v>
@@ -10958,7 +10958,7 @@
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
-        <v>1510</v>
+        <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>13</v>
@@ -10996,7 +10996,7 @@
     </row>
     <row r="136" spans="1:14">
       <c r="A136" s="1">
-        <v>1511</v>
+        <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>13</v>
@@ -11034,7 +11034,7 @@
     </row>
     <row r="137" spans="1:14">
       <c r="A137" s="1">
-        <v>1512</v>
+        <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>13</v>
@@ -11072,7 +11072,7 @@
     </row>
     <row r="138" spans="1:14">
       <c r="A138" s="1">
-        <v>1513</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
@@ -11110,7 +11110,7 @@
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
-        <v>1514</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
@@ -11148,7 +11148,7 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" s="1">
-        <v>1515</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
         <v>13</v>
@@ -11186,7 +11186,7 @@
     </row>
     <row r="141" spans="1:14">
       <c r="A141" s="1">
-        <v>1516</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
         <v>13</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="142" spans="1:14">
       <c r="A142" s="1">
-        <v>1517</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
-        <v>1518</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
         <v>13</v>
@@ -11300,7 +11300,7 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" s="1">
-        <v>1519</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
         <v>13</v>
@@ -11338,7 +11338,7 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
-        <v>1520</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>13</v>
@@ -11376,7 +11376,7 @@
     </row>
     <row r="146" spans="1:14">
       <c r="A146" s="1">
-        <v>1521</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>13</v>
@@ -11414,7 +11414,7 @@
     </row>
     <row r="147" spans="1:14">
       <c r="A147" s="1">
-        <v>1522</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>13</v>
@@ -11452,7 +11452,7 @@
     </row>
     <row r="148" spans="1:14">
       <c r="A148" s="1">
-        <v>1523</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>13</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="149" spans="1:14">
       <c r="A149" s="1">
-        <v>1524</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>13</v>
@@ -11528,7 +11528,7 @@
     </row>
     <row r="150" spans="1:14">
       <c r="A150" s="1">
-        <v>1525</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>13</v>
@@ -11566,7 +11566,7 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" s="1">
-        <v>1526</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
         <v>13</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
-        <v>1527</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
         <v>13</v>
@@ -11642,7 +11642,7 @@
     </row>
     <row r="153" spans="1:14">
       <c r="A153" s="1">
-        <v>1528</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
         <v>13</v>
@@ -11680,7 +11680,7 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" s="1">
-        <v>1529</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
@@ -11718,7 +11718,7 @@
     </row>
     <row r="155" spans="1:14">
       <c r="A155" s="1">
-        <v>1530</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
         <v>13</v>
@@ -11756,7 +11756,7 @@
     </row>
     <row r="156" spans="1:14">
       <c r="A156" s="1">
-        <v>1531</v>
+        <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>13</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
-        <v>1532</v>
+        <v>155</v>
       </c>
       <c r="B157" t="s">
         <v>13</v>
@@ -11832,7 +11832,7 @@
     </row>
     <row r="158" spans="1:14">
       <c r="A158" s="1">
-        <v>1533</v>
+        <v>156</v>
       </c>
       <c r="B158" t="s">
         <v>13</v>
@@ -11870,7 +11870,7 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" s="1">
-        <v>1534</v>
+        <v>157</v>
       </c>
       <c r="B159" t="s">
         <v>13</v>
@@ -11908,7 +11908,7 @@
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
-        <v>1535</v>
+        <v>158</v>
       </c>
       <c r="B160" t="s">
         <v>13</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="161" spans="1:14">
       <c r="A161" s="1">
-        <v>1536</v>
+        <v>159</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
@@ -11984,7 +11984,7 @@
     </row>
     <row r="162" spans="1:14">
       <c r="A162" s="1">
-        <v>1537</v>
+        <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>13</v>
@@ -12022,7 +12022,7 @@
     </row>
     <row r="163" spans="1:14">
       <c r="A163" s="1">
-        <v>1538</v>
+        <v>161</v>
       </c>
       <c r="B163" t="s">
         <v>13</v>
@@ -12057,7 +12057,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" s="1">
-        <v>1539</v>
+        <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>13</v>
@@ -12092,7 +12092,7 @@
     </row>
     <row r="165" spans="1:14">
       <c r="A165" s="1">
-        <v>1540</v>
+        <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>13</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
-        <v>1541</v>
+        <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>13</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="167" spans="1:14">
       <c r="A167" s="1">
-        <v>1542</v>
+        <v>165</v>
       </c>
       <c r="B167" t="s">
         <v>13</v>
@@ -12203,7 +12203,7 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" s="1">
-        <v>1543</v>
+        <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
-        <v>1544</v>
+        <v>167</v>
       </c>
       <c r="B169" t="s">
         <v>13</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="170" spans="1:14">
       <c r="A170" s="1">
-        <v>1545</v>
+        <v>168</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
@@ -12317,7 +12317,7 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
-        <v>1546</v>
+        <v>169</v>
       </c>
       <c r="B171" t="s">
         <v>13</v>
@@ -12355,7 +12355,7 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" s="1">
-        <v>1698</v>
+        <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>13</v>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" s="1">
-        <v>1699</v>
+        <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>13</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="174" spans="1:14">
       <c r="A174" s="1">
-        <v>1700</v>
+        <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>13</v>
@@ -12469,7 +12469,7 @@
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
-        <v>1701</v>
+        <v>173</v>
       </c>
       <c r="B175" t="s">
         <v>13</v>
@@ -12507,7 +12507,7 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" s="1">
-        <v>1702</v>
+        <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>13</v>
@@ -12545,7 +12545,7 @@
     </row>
     <row r="177" spans="1:14">
       <c r="A177" s="1">
-        <v>1703</v>
+        <v>175</v>
       </c>
       <c r="B177" t="s">
         <v>13</v>
@@ -12583,7 +12583,7 @@
     </row>
     <row r="178" spans="1:14">
       <c r="A178" s="1">
-        <v>1704</v>
+        <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>13</v>
@@ -12621,7 +12621,7 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" s="1">
-        <v>1705</v>
+        <v>177</v>
       </c>
       <c r="B179" t="s">
         <v>13</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
-        <v>1706</v>
+        <v>178</v>
       </c>
       <c r="B180" t="s">
         <v>13</v>
@@ -12697,7 +12697,7 @@
     </row>
     <row r="181" spans="1:14">
       <c r="A181" s="1">
-        <v>1707</v>
+        <v>179</v>
       </c>
       <c r="B181" t="s">
         <v>13</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="182" spans="1:14">
       <c r="A182" s="1">
-        <v>1708</v>
+        <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>13</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="183" spans="1:14">
       <c r="A183" s="1">
-        <v>1709</v>
+        <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>13</v>
@@ -12811,7 +12811,7 @@
     </row>
     <row r="184" spans="1:14">
       <c r="A184" s="1">
-        <v>1710</v>
+        <v>182</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
@@ -12849,7 +12849,7 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
-        <v>1711</v>
+        <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="186" spans="1:14">
       <c r="A186" s="1">
-        <v>1712</v>
+        <v>184</v>
       </c>
       <c r="B186" t="s">
         <v>13</v>
@@ -12925,7 +12925,7 @@
     </row>
     <row r="187" spans="1:14">
       <c r="A187" s="1">
-        <v>1713</v>
+        <v>185</v>
       </c>
       <c r="B187" t="s">
         <v>13</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
-        <v>1714</v>
+        <v>186</v>
       </c>
       <c r="B188" t="s">
         <v>13</v>
@@ -13001,7 +13001,7 @@
     </row>
     <row r="189" spans="1:14">
       <c r="A189" s="1">
-        <v>1715</v>
+        <v>187</v>
       </c>
       <c r="B189" t="s">
         <v>13</v>
@@ -13039,7 +13039,7 @@
     </row>
     <row r="190" spans="1:14">
       <c r="A190" s="1">
-        <v>1716</v>
+        <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>13</v>
@@ -13077,7 +13077,7 @@
     </row>
     <row r="191" spans="1:14">
       <c r="A191" s="1">
-        <v>1717</v>
+        <v>189</v>
       </c>
       <c r="B191" t="s">
         <v>13</v>
@@ -13115,7 +13115,7 @@
     </row>
     <row r="192" spans="1:14">
       <c r="A192" s="1">
-        <v>1718</v>
+        <v>190</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" s="1">
-        <v>1719</v>
+        <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>13</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" s="1">
-        <v>1720</v>
+        <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>13</v>
@@ -13229,7 +13229,7 @@
     </row>
     <row r="195" spans="1:14">
       <c r="A195" s="1">
-        <v>1721</v>
+        <v>193</v>
       </c>
       <c r="B195" t="s">
         <v>13</v>
@@ -13267,7 +13267,7 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" s="1">
-        <v>1722</v>
+        <v>194</v>
       </c>
       <c r="B196" t="s">
         <v>13</v>
@@ -13305,7 +13305,7 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" s="1">
-        <v>1723</v>
+        <v>195</v>
       </c>
       <c r="B197" t="s">
         <v>13</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="198" spans="1:14">
       <c r="A198" s="1">
-        <v>1724</v>
+        <v>196</v>
       </c>
       <c r="B198" t="s">
         <v>13</v>
@@ -13381,7 +13381,7 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" s="1">
-        <v>1725</v>
+        <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>13</v>
@@ -13419,7 +13419,7 @@
     </row>
     <row r="200" spans="1:14">
       <c r="A200" s="1">
-        <v>1726</v>
+        <v>198</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="201" spans="1:14">
       <c r="A201" s="1">
-        <v>1727</v>
+        <v>199</v>
       </c>
       <c r="B201" t="s">
         <v>13</v>
@@ -13492,7 +13492,7 @@
     </row>
     <row r="202" spans="1:14">
       <c r="A202" s="1">
-        <v>1729</v>
+        <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>13</v>
@@ -13530,7 +13530,7 @@
     </row>
     <row r="203" spans="1:14">
       <c r="A203" s="1">
-        <v>1762</v>
+        <v>201</v>
       </c>
       <c r="B203" t="s">
         <v>13</v>
@@ -13565,7 +13565,7 @@
     </row>
     <row r="204" spans="1:14">
       <c r="A204" s="1">
-        <v>1782</v>
+        <v>202</v>
       </c>
       <c r="B204" t="s">
         <v>13</v>
@@ -13600,7 +13600,7 @@
     </row>
     <row r="205" spans="1:14">
       <c r="A205" s="1">
-        <v>1783</v>
+        <v>203</v>
       </c>
       <c r="B205" t="s">
         <v>13</v>
@@ -13635,7 +13635,7 @@
     </row>
     <row r="206" spans="1:14">
       <c r="A206" s="1">
-        <v>1880</v>
+        <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>13</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="207" spans="1:14">
       <c r="A207" s="1">
-        <v>1920</v>
+        <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>13</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="208" spans="1:14">
       <c r="A208" s="1">
-        <v>1921</v>
+        <v>206</v>
       </c>
       <c r="B208" t="s">
         <v>13</v>
@@ -13716,7 +13716,7 @@
     </row>
     <row r="209" spans="1:14">
       <c r="A209" s="1">
-        <v>1984</v>
+        <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>13</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" s="1">
-        <v>1988</v>
+        <v>208</v>
       </c>
       <c r="B210" t="s">
         <v>13</v>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="211" spans="1:14">
       <c r="A211" s="1">
-        <v>1989</v>
+        <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>13</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="212" spans="1:14">
       <c r="A212" s="1">
-        <v>1990</v>
+        <v>210</v>
       </c>
       <c r="B212" t="s">
         <v>13</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="213" spans="1:14">
       <c r="A213" s="1">
-        <v>1991</v>
+        <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>13</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="214" spans="1:14">
       <c r="A214" s="1">
-        <v>1992</v>
+        <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>13</v>
@@ -13908,7 +13908,7 @@
     </row>
     <row r="215" spans="1:14">
       <c r="A215" s="1">
-        <v>1993</v>
+        <v>213</v>
       </c>
       <c r="B215" t="s">
         <v>13</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="216" spans="1:14">
       <c r="A216" s="1">
-        <v>1994</v>
+        <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
@@ -13984,7 +13984,7 @@
     </row>
     <row r="217" spans="1:14">
       <c r="A217" s="1">
-        <v>1995</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>13</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="218" spans="1:14">
       <c r="A218" s="1">
-        <v>1996</v>
+        <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>13</v>
@@ -14060,7 +14060,7 @@
     </row>
     <row r="219" spans="1:14">
       <c r="A219" s="1">
-        <v>1997</v>
+        <v>217</v>
       </c>
       <c r="B219" t="s">
         <v>13</v>
@@ -14098,7 +14098,7 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" s="1">
-        <v>1998</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>13</v>
@@ -14136,7 +14136,7 @@
     </row>
     <row r="221" spans="1:14">
       <c r="A221" s="1">
-        <v>1999</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>13</v>
@@ -14174,7 +14174,7 @@
     </row>
     <row r="222" spans="1:14">
       <c r="A222" s="1">
-        <v>2000</v>
+        <v>220</v>
       </c>
       <c r="B222" t="s">
         <v>13</v>
@@ -14212,7 +14212,7 @@
     </row>
     <row r="223" spans="1:14">
       <c r="A223" s="1">
-        <v>2001</v>
+        <v>221</v>
       </c>
       <c r="B223" t="s">
         <v>13</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="224" spans="1:14">
       <c r="A224" s="1">
-        <v>2002</v>
+        <v>222</v>
       </c>
       <c r="B224" t="s">
         <v>13</v>
@@ -14288,7 +14288,7 @@
     </row>
     <row r="225" spans="1:14">
       <c r="A225" s="1">
-        <v>2003</v>
+        <v>223</v>
       </c>
       <c r="B225" t="s">
         <v>13</v>
@@ -14326,7 +14326,7 @@
     </row>
     <row r="226" spans="1:14">
       <c r="A226" s="1">
-        <v>2004</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>13</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="227" spans="1:14">
       <c r="A227" s="1">
-        <v>2005</v>
+        <v>225</v>
       </c>
       <c r="B227" t="s">
         <v>13</v>
@@ -14402,7 +14402,7 @@
     </row>
     <row r="228" spans="1:14">
       <c r="A228" s="1">
-        <v>2006</v>
+        <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>13</v>
@@ -14440,7 +14440,7 @@
     </row>
     <row r="229" spans="1:14">
       <c r="A229" s="1">
-        <v>2007</v>
+        <v>227</v>
       </c>
       <c r="B229" t="s">
         <v>13</v>
@@ -14478,7 +14478,7 @@
     </row>
     <row r="230" spans="1:14">
       <c r="A230" s="1">
-        <v>2008</v>
+        <v>228</v>
       </c>
       <c r="B230" t="s">
         <v>13</v>
@@ -14516,7 +14516,7 @@
     </row>
     <row r="231" spans="1:14">
       <c r="A231" s="1">
-        <v>2009</v>
+        <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>13</v>
@@ -14554,7 +14554,7 @@
     </row>
     <row r="232" spans="1:14">
       <c r="A232" s="1">
-        <v>2010</v>
+        <v>230</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="233" spans="1:14">
       <c r="A233" s="1">
-        <v>2011</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>13</v>
@@ -14630,7 +14630,7 @@
     </row>
     <row r="234" spans="1:14">
       <c r="A234" s="1">
-        <v>2012</v>
+        <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>13</v>
@@ -14668,7 +14668,7 @@
     </row>
     <row r="235" spans="1:14">
       <c r="A235" s="1">
-        <v>2013</v>
+        <v>233</v>
       </c>
       <c r="B235" t="s">
         <v>13</v>
@@ -14706,7 +14706,7 @@
     </row>
     <row r="236" spans="1:14">
       <c r="A236" s="1">
-        <v>2014</v>
+        <v>234</v>
       </c>
       <c r="B236" t="s">
         <v>13</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="237" spans="1:14">
       <c r="A237" s="1">
-        <v>2015</v>
+        <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>13</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="238" spans="1:14">
       <c r="A238" s="1">
-        <v>2016</v>
+        <v>236</v>
       </c>
       <c r="B238" t="s">
         <v>13</v>
@@ -14820,7 +14820,7 @@
     </row>
     <row r="239" spans="1:14">
       <c r="A239" s="1">
-        <v>2017</v>
+        <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>13</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="240" spans="1:14">
       <c r="A240" s="1">
-        <v>2018</v>
+        <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>13</v>
@@ -14890,7 +14890,7 @@
     </row>
     <row r="241" spans="1:14">
       <c r="A241" s="1">
-        <v>2019</v>
+        <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>13</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="242" spans="1:14">
       <c r="A242" s="1">
-        <v>2020</v>
+        <v>240</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
@@ -14933,7 +14933,7 @@
     </row>
     <row r="243" spans="1:14">
       <c r="A243" s="1">
-        <v>2021</v>
+        <v>241</v>
       </c>
       <c r="B243" t="s">
         <v>13</v>
@@ -14941,7 +14941,7 @@
     </row>
     <row r="244" spans="1:14">
       <c r="A244" s="1">
-        <v>2037</v>
+        <v>242</v>
       </c>
       <c r="B244" t="s">
         <v>13</v>
@@ -14979,7 +14979,7 @@
     </row>
     <row r="245" spans="1:14">
       <c r="A245" s="1">
-        <v>2038</v>
+        <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>13</v>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="246" spans="1:14">
       <c r="A246" s="1">
-        <v>2039</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>13</v>
@@ -15052,7 +15052,7 @@
     </row>
     <row r="247" spans="1:14">
       <c r="A247" s="1">
-        <v>2062</v>
+        <v>245</v>
       </c>
       <c r="B247" t="s">
         <v>13</v>
@@ -15090,7 +15090,7 @@
     </row>
     <row r="248" spans="1:14">
       <c r="A248" s="1">
-        <v>2074</v>
+        <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>13</v>
@@ -15125,7 +15125,7 @@
     </row>
     <row r="249" spans="1:14">
       <c r="A249" s="1">
-        <v>2088</v>
+        <v>247</v>
       </c>
       <c r="B249" t="s">
         <v>13</v>
@@ -15163,7 +15163,7 @@
     </row>
     <row r="250" spans="1:14">
       <c r="A250" s="1">
-        <v>2089</v>
+        <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>13</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="251" spans="1:14">
       <c r="A251" s="1">
-        <v>2090</v>
+        <v>249</v>
       </c>
       <c r="B251" t="s">
         <v>13</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="252" spans="1:14">
       <c r="A252" s="1">
-        <v>2091</v>
+        <v>250</v>
       </c>
       <c r="B252" t="s">
         <v>13</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="253" spans="1:14">
       <c r="A253" s="1">
-        <v>2092</v>
+        <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>13</v>
@@ -15315,7 +15315,7 @@
     </row>
     <row r="254" spans="1:14">
       <c r="A254" s="1">
-        <v>2093</v>
+        <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>13</v>
@@ -15353,7 +15353,7 @@
     </row>
     <row r="255" spans="1:14">
       <c r="A255" s="1">
-        <v>2094</v>
+        <v>253</v>
       </c>
       <c r="B255" t="s">
         <v>13</v>
@@ -15391,7 +15391,7 @@
     </row>
     <row r="256" spans="1:14">
       <c r="A256" s="1">
-        <v>2095</v>
+        <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>13</v>
@@ -15429,7 +15429,7 @@
     </row>
     <row r="257" spans="1:14">
       <c r="A257" s="1">
-        <v>2096</v>
+        <v>255</v>
       </c>
       <c r="B257" t="s">
         <v>13</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="258" spans="1:14">
       <c r="A258" s="1">
-        <v>2097</v>
+        <v>256</v>
       </c>
       <c r="B258" t="s">
         <v>13</v>
@@ -15505,7 +15505,7 @@
     </row>
     <row r="259" spans="1:14">
       <c r="A259" s="1">
-        <v>2098</v>
+        <v>257</v>
       </c>
       <c r="B259" t="s">
         <v>13</v>
@@ -15543,7 +15543,7 @@
     </row>
     <row r="260" spans="1:14">
       <c r="A260" s="1">
-        <v>2099</v>
+        <v>258</v>
       </c>
       <c r="B260" t="s">
         <v>13</v>
@@ -15578,7 +15578,7 @@
     </row>
     <row r="261" spans="1:14">
       <c r="A261" s="1">
-        <v>2100</v>
+        <v>259</v>
       </c>
       <c r="B261" t="s">
         <v>13</v>
@@ -15613,7 +15613,7 @@
     </row>
     <row r="262" spans="1:14">
       <c r="A262" s="1">
-        <v>2101</v>
+        <v>260</v>
       </c>
       <c r="B262" t="s">
         <v>13</v>
@@ -15651,7 +15651,7 @@
     </row>
     <row r="263" spans="1:14">
       <c r="A263" s="1">
-        <v>2102</v>
+        <v>261</v>
       </c>
       <c r="B263" t="s">
         <v>13</v>
@@ -15689,7 +15689,7 @@
     </row>
     <row r="264" spans="1:14">
       <c r="A264" s="1">
-        <v>2103</v>
+        <v>262</v>
       </c>
       <c r="B264" t="s">
         <v>13</v>
@@ -15724,7 +15724,7 @@
     </row>
     <row r="265" spans="1:14">
       <c r="A265" s="1">
-        <v>2104</v>
+        <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>13</v>
@@ -15762,7 +15762,7 @@
     </row>
     <row r="266" spans="1:14">
       <c r="A266" s="1">
-        <v>2105</v>
+        <v>264</v>
       </c>
       <c r="B266" t="s">
         <v>13</v>
@@ -15800,7 +15800,7 @@
     </row>
     <row r="267" spans="1:14">
       <c r="A267" s="1">
-        <v>2106</v>
+        <v>265</v>
       </c>
       <c r="B267" t="s">
         <v>13</v>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="268" spans="1:14">
       <c r="A268" s="1">
-        <v>2107</v>
+        <v>266</v>
       </c>
       <c r="B268" t="s">
         <v>13</v>
@@ -15876,7 +15876,7 @@
     </row>
     <row r="269" spans="1:14">
       <c r="A269" s="1">
-        <v>2108</v>
+        <v>267</v>
       </c>
       <c r="B269" t="s">
         <v>13</v>
@@ -15914,7 +15914,7 @@
     </row>
     <row r="270" spans="1:14">
       <c r="A270" s="1">
-        <v>2109</v>
+        <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>13</v>
@@ -15952,7 +15952,7 @@
     </row>
     <row r="271" spans="1:14">
       <c r="A271" s="1">
-        <v>2110</v>
+        <v>269</v>
       </c>
       <c r="B271" t="s">
         <v>13</v>
@@ -15990,7 +15990,7 @@
     </row>
     <row r="272" spans="1:14">
       <c r="A272" s="1">
-        <v>2111</v>
+        <v>270</v>
       </c>
       <c r="B272" t="s">
         <v>13</v>
@@ -16028,7 +16028,7 @@
     </row>
     <row r="273" spans="1:14">
       <c r="A273" s="1">
-        <v>2112</v>
+        <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>13</v>
@@ -16063,7 +16063,7 @@
     </row>
     <row r="274" spans="1:14">
       <c r="A274" s="1">
-        <v>2113</v>
+        <v>272</v>
       </c>
       <c r="B274" t="s">
         <v>13</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="275" spans="1:14">
       <c r="A275" s="1">
-        <v>2114</v>
+        <v>273</v>
       </c>
       <c r="B275" t="s">
         <v>13</v>
@@ -16133,7 +16133,7 @@
     </row>
     <row r="276" spans="1:14">
       <c r="A276" s="1">
-        <v>2115</v>
+        <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>13</v>
@@ -16168,7 +16168,7 @@
     </row>
     <row r="277" spans="1:14">
       <c r="A277" s="1">
-        <v>2116</v>
+        <v>275</v>
       </c>
       <c r="B277" t="s">
         <v>13</v>
@@ -16206,7 +16206,7 @@
     </row>
     <row r="278" spans="1:14">
       <c r="A278" s="1">
-        <v>2117</v>
+        <v>276</v>
       </c>
       <c r="B278" t="s">
         <v>13</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="279" spans="1:14">
       <c r="A279" s="1">
-        <v>2118</v>
+        <v>277</v>
       </c>
       <c r="B279" t="s">
         <v>13</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="280" spans="1:14">
       <c r="A280" s="1">
-        <v>2119</v>
+        <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>13</v>
@@ -16317,7 +16317,7 @@
     </row>
     <row r="281" spans="1:14">
       <c r="A281" s="1">
-        <v>2120</v>
+        <v>279</v>
       </c>
       <c r="B281" t="s">
         <v>13</v>
@@ -16352,7 +16352,7 @@
     </row>
     <row r="282" spans="1:14">
       <c r="A282" s="1">
-        <v>2173</v>
+        <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>13</v>
@@ -16387,7 +16387,7 @@
     </row>
     <row r="283" spans="1:14">
       <c r="A283" s="1">
-        <v>2174</v>
+        <v>281</v>
       </c>
       <c r="B283" t="s">
         <v>13</v>
@@ -16425,7 +16425,7 @@
     </row>
     <row r="284" spans="1:14">
       <c r="A284" s="1">
-        <v>2212</v>
+        <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>13</v>
@@ -16460,7 +16460,7 @@
     </row>
     <row r="285" spans="1:14">
       <c r="A285" s="1">
-        <v>2213</v>
+        <v>283</v>
       </c>
       <c r="B285" t="s">
         <v>13</v>
@@ -16498,7 +16498,7 @@
     </row>
     <row r="286" spans="1:14">
       <c r="A286" s="1">
-        <v>2214</v>
+        <v>284</v>
       </c>
       <c r="B286" t="s">
         <v>13</v>
@@ -16536,7 +16536,7 @@
     </row>
     <row r="287" spans="1:14">
       <c r="A287" s="1">
-        <v>2215</v>
+        <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>13</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="288" spans="1:14">
       <c r="A288" s="1">
-        <v>2216</v>
+        <v>286</v>
       </c>
       <c r="B288" t="s">
         <v>13</v>
@@ -16612,7 +16612,7 @@
     </row>
     <row r="289" spans="1:14">
       <c r="A289" s="1">
-        <v>2217</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>13</v>
@@ -16650,7 +16650,7 @@
     </row>
     <row r="290" spans="1:14">
       <c r="A290" s="1">
-        <v>2218</v>
+        <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>13</v>
@@ -16688,7 +16688,7 @@
     </row>
     <row r="291" spans="1:14">
       <c r="A291" s="1">
-        <v>2219</v>
+        <v>289</v>
       </c>
       <c r="B291" t="s">
         <v>13</v>
@@ -16723,7 +16723,7 @@
     </row>
     <row r="292" spans="1:14">
       <c r="A292" s="1">
-        <v>2220</v>
+        <v>290</v>
       </c>
       <c r="B292" t="s">
         <v>13</v>
@@ -16761,7 +16761,7 @@
     </row>
     <row r="293" spans="1:14">
       <c r="A293" s="1">
-        <v>2221</v>
+        <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>13</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="294" spans="1:14">
       <c r="A294" s="1">
-        <v>2222</v>
+        <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>13</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="295" spans="1:14">
       <c r="A295" s="1">
-        <v>2223</v>
+        <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>13</v>
@@ -16875,7 +16875,7 @@
     </row>
     <row r="296" spans="1:14">
       <c r="A296" s="1">
-        <v>2224</v>
+        <v>294</v>
       </c>
       <c r="B296" t="s">
         <v>13</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="297" spans="1:14">
       <c r="A297" s="1">
-        <v>2225</v>
+        <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>13</v>
@@ -16951,7 +16951,7 @@
     </row>
     <row r="298" spans="1:14">
       <c r="A298" s="1">
-        <v>2226</v>
+        <v>296</v>
       </c>
       <c r="B298" t="s">
         <v>13</v>
@@ -16989,7 +16989,7 @@
     </row>
     <row r="299" spans="1:14">
       <c r="A299" s="1">
-        <v>2227</v>
+        <v>297</v>
       </c>
       <c r="B299" t="s">
         <v>13</v>
@@ -17027,7 +17027,7 @@
     </row>
     <row r="300" spans="1:14">
       <c r="A300" s="1">
-        <v>2228</v>
+        <v>298</v>
       </c>
       <c r="B300" t="s">
         <v>13</v>
@@ -17065,7 +17065,7 @@
     </row>
     <row r="301" spans="1:14">
       <c r="A301" s="1">
-        <v>2229</v>
+        <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>13</v>
@@ -17103,7 +17103,7 @@
     </row>
     <row r="302" spans="1:14">
       <c r="A302" s="1">
-        <v>2230</v>
+        <v>300</v>
       </c>
       <c r="B302" t="s">
         <v>13</v>
@@ -17141,7 +17141,7 @@
     </row>
     <row r="303" spans="1:14">
       <c r="A303" s="1">
-        <v>2231</v>
+        <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>13</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="304" spans="1:14">
       <c r="A304" s="1">
-        <v>2254</v>
+        <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>13</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="305" spans="1:13">
       <c r="A305" s="1">
-        <v>2262</v>
+        <v>303</v>
       </c>
       <c r="B305" t="s">
         <v>13</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="306" spans="1:13">
       <c r="A306" s="1">
-        <v>2263</v>
+        <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>13</v>
@@ -17272,7 +17272,7 @@
     </row>
     <row r="307" spans="1:13">
       <c r="A307" s="1">
-        <v>2264</v>
+        <v>305</v>
       </c>
       <c r="B307" t="s">
         <v>13</v>
@@ -17307,7 +17307,7 @@
     </row>
     <row r="308" spans="1:13">
       <c r="A308" s="1">
-        <v>2265</v>
+        <v>306</v>
       </c>
       <c r="B308" t="s">
         <v>13</v>
@@ -17342,7 +17342,7 @@
     </row>
     <row r="309" spans="1:13">
       <c r="A309" s="1">
-        <v>2266</v>
+        <v>307</v>
       </c>
       <c r="B309" t="s">
         <v>13</v>
@@ -17377,7 +17377,7 @@
     </row>
     <row r="310" spans="1:13">
       <c r="A310" s="1">
-        <v>2267</v>
+        <v>308</v>
       </c>
       <c r="B310" t="s">
         <v>13</v>
@@ -17412,7 +17412,7 @@
     </row>
     <row r="311" spans="1:13">
       <c r="A311" s="1">
-        <v>2268</v>
+        <v>309</v>
       </c>
       <c r="B311" t="s">
         <v>13</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="312" spans="1:13">
       <c r="A312" s="1">
-        <v>2269</v>
+        <v>310</v>
       </c>
       <c r="B312" t="s">
         <v>13</v>
@@ -17482,7 +17482,7 @@
     </row>
     <row r="313" spans="1:13">
       <c r="A313" s="1">
-        <v>2270</v>
+        <v>311</v>
       </c>
       <c r="B313" t="s">
         <v>13</v>
@@ -17517,7 +17517,7 @@
     </row>
     <row r="314" spans="1:13">
       <c r="A314" s="1">
-        <v>2271</v>
+        <v>312</v>
       </c>
       <c r="B314" t="s">
         <v>13</v>
@@ -17552,7 +17552,7 @@
     </row>
     <row r="315" spans="1:13">
       <c r="A315" s="1">
-        <v>2272</v>
+        <v>313</v>
       </c>
       <c r="B315" t="s">
         <v>13</v>
@@ -17587,7 +17587,7 @@
     </row>
     <row r="316" spans="1:13">
       <c r="A316" s="1">
-        <v>2273</v>
+        <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>13</v>
@@ -17622,7 +17622,7 @@
     </row>
     <row r="317" spans="1:13">
       <c r="A317" s="1">
-        <v>2274</v>
+        <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>13</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="318" spans="1:13">
       <c r="A318" s="1">
-        <v>2275</v>
+        <v>316</v>
       </c>
       <c r="B318" t="s">
         <v>13</v>
@@ -17692,7 +17692,7 @@
     </row>
     <row r="319" spans="1:13">
       <c r="A319" s="1">
-        <v>2276</v>
+        <v>317</v>
       </c>
       <c r="B319" t="s">
         <v>13</v>
@@ -17727,7 +17727,7 @@
     </row>
     <row r="320" spans="1:13">
       <c r="A320" s="1">
-        <v>2277</v>
+        <v>318</v>
       </c>
       <c r="B320" t="s">
         <v>13</v>
@@ -17762,7 +17762,7 @@
     </row>
     <row r="321" spans="1:13">
       <c r="A321" s="1">
-        <v>2278</v>
+        <v>319</v>
       </c>
       <c r="B321" t="s">
         <v>13</v>
@@ -17797,7 +17797,7 @@
     </row>
     <row r="322" spans="1:13">
       <c r="A322" s="1">
-        <v>2279</v>
+        <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>13</v>
@@ -17832,7 +17832,7 @@
     </row>
     <row r="323" spans="1:13">
       <c r="A323" s="1">
-        <v>2280</v>
+        <v>321</v>
       </c>
       <c r="B323" t="s">
         <v>13</v>
@@ -17867,7 +17867,7 @@
     </row>
     <row r="324" spans="1:13">
       <c r="A324" s="1">
-        <v>2281</v>
+        <v>322</v>
       </c>
       <c r="B324" t="s">
         <v>13</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="325" spans="1:13">
       <c r="A325" s="1">
-        <v>2282</v>
+        <v>323</v>
       </c>
       <c r="B325" t="s">
         <v>13</v>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="326" spans="1:13">
       <c r="A326" s="1">
-        <v>2283</v>
+        <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>13</v>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="327" spans="1:13">
       <c r="A327" s="1">
-        <v>2284</v>
+        <v>325</v>
       </c>
       <c r="B327" t="s">
         <v>13</v>
@@ -18007,7 +18007,7 @@
     </row>
     <row r="328" spans="1:13">
       <c r="A328" s="1">
-        <v>2285</v>
+        <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>13</v>
@@ -18042,7 +18042,7 @@
     </row>
     <row r="329" spans="1:13">
       <c r="A329" s="1">
-        <v>2286</v>
+        <v>327</v>
       </c>
       <c r="B329" t="s">
         <v>13</v>
@@ -18077,7 +18077,7 @@
     </row>
     <row r="330" spans="1:13">
       <c r="A330" s="1">
-        <v>2287</v>
+        <v>328</v>
       </c>
       <c r="B330" t="s">
         <v>13</v>
@@ -18112,7 +18112,7 @@
     </row>
     <row r="331" spans="1:13">
       <c r="A331" s="1">
-        <v>2321</v>
+        <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>13</v>
@@ -18147,7 +18147,7 @@
     </row>
     <row r="332" spans="1:13">
       <c r="A332" s="1">
-        <v>2396</v>
+        <v>330</v>
       </c>
       <c r="B332" t="s">
         <v>13</v>
@@ -18182,7 +18182,7 @@
     </row>
     <row r="333" spans="1:13">
       <c r="A333" s="1">
-        <v>2397</v>
+        <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>13</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="334" spans="1:13">
       <c r="A334" s="1">
-        <v>2398</v>
+        <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>13</v>
@@ -18252,7 +18252,7 @@
     </row>
     <row r="335" spans="1:13">
       <c r="A335" s="1">
-        <v>2399</v>
+        <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>13</v>
@@ -18287,7 +18287,7 @@
     </row>
     <row r="336" spans="1:13">
       <c r="A336" s="1">
-        <v>2400</v>
+        <v>334</v>
       </c>
       <c r="B336" t="s">
         <v>13</v>
@@ -18322,7 +18322,7 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="1">
-        <v>2401</v>
+        <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>13</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="1">
-        <v>2402</v>
+        <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>13</v>
@@ -18392,7 +18392,7 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="1">
-        <v>2403</v>
+        <v>337</v>
       </c>
       <c r="B339" t="s">
         <v>13</v>
@@ -18427,7 +18427,7 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="1">
-        <v>2404</v>
+        <v>338</v>
       </c>
       <c r="B340" t="s">
         <v>13</v>
@@ -18462,7 +18462,7 @@
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="1">
-        <v>2405</v>
+        <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>13</v>
@@ -18500,7 +18500,7 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="1">
-        <v>2406</v>
+        <v>340</v>
       </c>
       <c r="B342" t="s">
         <v>13</v>
@@ -18538,7 +18538,7 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="1">
-        <v>2407</v>
+        <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>13</v>
@@ -18573,7 +18573,7 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="1">
-        <v>2408</v>
+        <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>13</v>
@@ -18608,7 +18608,7 @@
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="1">
-        <v>2409</v>
+        <v>343</v>
       </c>
       <c r="B345" t="s">
         <v>13</v>
@@ -18643,7 +18643,7 @@
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="1">
-        <v>2503</v>
+        <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>13</v>
@@ -18675,7 +18675,7 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="1">
-        <v>2504</v>
+        <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>13</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="1">
-        <v>2505</v>
+        <v>346</v>
       </c>
       <c r="B348" t="s">
         <v>13</v>
@@ -18745,7 +18745,7 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="1">
-        <v>2506</v>
+        <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>13</v>
@@ -18783,7 +18783,7 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="1">
-        <v>2507</v>
+        <v>348</v>
       </c>
       <c r="B350" t="s">
         <v>13</v>
@@ -18821,7 +18821,7 @@
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="1">
-        <v>2508</v>
+        <v>349</v>
       </c>
       <c r="B351" t="s">
         <v>13</v>
@@ -18856,7 +18856,7 @@
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="1">
-        <v>2509</v>
+        <v>350</v>
       </c>
       <c r="B352" t="s">
         <v>13</v>
@@ -18891,7 +18891,7 @@
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="1">
-        <v>2510</v>
+        <v>351</v>
       </c>
       <c r="B353" t="s">
         <v>13</v>
@@ -18926,7 +18926,7 @@
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="1">
-        <v>2511</v>
+        <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>13</v>
@@ -18961,7 +18961,7 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="1">
-        <v>2512</v>
+        <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>13</v>
@@ -18996,7 +18996,7 @@
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="1">
-        <v>2513</v>
+        <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>13</v>
@@ -19031,7 +19031,7 @@
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="1">
-        <v>2514</v>
+        <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>13</v>
@@ -19066,7 +19066,7 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="1">
-        <v>2515</v>
+        <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>13</v>
@@ -19101,7 +19101,7 @@
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="1">
-        <v>2516</v>
+        <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>13</v>
@@ -19136,7 +19136,7 @@
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="1">
-        <v>2517</v>
+        <v>358</v>
       </c>
       <c r="B360" t="s">
         <v>13</v>
@@ -19171,7 +19171,7 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="1">
-        <v>2518</v>
+        <v>359</v>
       </c>
       <c r="B361" t="s">
         <v>13</v>
@@ -19206,7 +19206,7 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="1">
-        <v>2519</v>
+        <v>360</v>
       </c>
       <c r="B362" t="s">
         <v>13</v>
@@ -19241,7 +19241,7 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="1">
-        <v>2520</v>
+        <v>361</v>
       </c>
       <c r="B363" t="s">
         <v>13</v>
@@ -19273,7 +19273,7 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="1">
-        <v>2521</v>
+        <v>362</v>
       </c>
       <c r="B364" t="s">
         <v>13</v>
@@ -19311,7 +19311,7 @@
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="1">
-        <v>2524</v>
+        <v>363</v>
       </c>
       <c r="B365" t="s">
         <v>13</v>
@@ -19346,7 +19346,7 @@
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="1">
-        <v>2525</v>
+        <v>364</v>
       </c>
       <c r="B366" t="s">
         <v>13</v>
@@ -19381,7 +19381,7 @@
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="1">
-        <v>2526</v>
+        <v>365</v>
       </c>
       <c r="B367" t="s">
         <v>13</v>
@@ -19416,7 +19416,7 @@
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="1">
-        <v>2527</v>
+        <v>366</v>
       </c>
       <c r="B368" t="s">
         <v>13</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="1">
-        <v>2528</v>
+        <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>13</v>
@@ -19486,7 +19486,7 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="1">
-        <v>2529</v>
+        <v>368</v>
       </c>
       <c r="B370" t="s">
         <v>13</v>
@@ -19521,7 +19521,7 @@
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="1">
-        <v>2530</v>
+        <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>13</v>
@@ -19556,7 +19556,7 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="1">
-        <v>2531</v>
+        <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>13</v>
@@ -19591,7 +19591,7 @@
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="1">
-        <v>2532</v>
+        <v>371</v>
       </c>
       <c r="B373" t="s">
         <v>13</v>
@@ -19626,7 +19626,7 @@
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="1">
-        <v>2533</v>
+        <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>13</v>
@@ -19661,7 +19661,7 @@
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="1">
-        <v>2534</v>
+        <v>373</v>
       </c>
       <c r="B375" t="s">
         <v>13</v>
@@ -19696,7 +19696,7 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="1">
-        <v>2535</v>
+        <v>374</v>
       </c>
       <c r="B376" t="s">
         <v>13</v>
@@ -19731,7 +19731,7 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="1">
-        <v>2536</v>
+        <v>375</v>
       </c>
       <c r="B377" t="s">
         <v>13</v>
@@ -19766,7 +19766,7 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="1">
-        <v>2537</v>
+        <v>376</v>
       </c>
       <c r="B378" t="s">
         <v>13</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="1">
-        <v>2538</v>
+        <v>377</v>
       </c>
       <c r="B379" t="s">
         <v>13</v>
@@ -19839,7 +19839,7 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="1">
-        <v>2539</v>
+        <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>13</v>
@@ -19877,7 +19877,7 @@
     </row>
     <row r="381" spans="1:14">
       <c r="A381" s="1">
-        <v>2560</v>
+        <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>13</v>
@@ -19909,7 +19909,7 @@
     </row>
     <row r="382" spans="1:14">
       <c r="A382" s="1">
-        <v>2561</v>
+        <v>380</v>
       </c>
       <c r="B382" t="s">
         <v>13</v>
@@ -19947,7 +19947,7 @@
     </row>
     <row r="383" spans="1:14">
       <c r="A383" s="1">
-        <v>2562</v>
+        <v>381</v>
       </c>
       <c r="B383" t="s">
         <v>13</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="384" spans="1:14">
       <c r="A384" s="1">
-        <v>2563</v>
+        <v>382</v>
       </c>
       <c r="B384" t="s">
         <v>13</v>
@@ -20023,7 +20023,7 @@
     </row>
     <row r="385" spans="1:14">
       <c r="A385" s="1">
-        <v>2564</v>
+        <v>383</v>
       </c>
       <c r="B385" t="s">
         <v>13</v>
@@ -20061,7 +20061,7 @@
     </row>
     <row r="386" spans="1:14">
       <c r="A386" s="1">
-        <v>2565</v>
+        <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>13</v>
@@ -20099,7 +20099,7 @@
     </row>
     <row r="387" spans="1:14">
       <c r="A387" s="1">
-        <v>2566</v>
+        <v>385</v>
       </c>
       <c r="B387" t="s">
         <v>13</v>
@@ -20134,7 +20134,7 @@
     </row>
     <row r="388" spans="1:14">
       <c r="A388" s="1">
-        <v>2567</v>
+        <v>386</v>
       </c>
       <c r="B388" t="s">
         <v>13</v>
@@ -20172,7 +20172,7 @@
     </row>
     <row r="389" spans="1:14">
       <c r="A389" s="1">
-        <v>2568</v>
+        <v>387</v>
       </c>
       <c r="B389" t="s">
         <v>13</v>
@@ -20210,7 +20210,7 @@
     </row>
     <row r="390" spans="1:14">
       <c r="A390" s="1">
-        <v>2569</v>
+        <v>388</v>
       </c>
       <c r="B390" t="s">
         <v>13</v>
@@ -20248,7 +20248,7 @@
     </row>
     <row r="391" spans="1:14">
       <c r="A391" s="1">
-        <v>2570</v>
+        <v>389</v>
       </c>
       <c r="B391" t="s">
         <v>13</v>
@@ -20286,7 +20286,7 @@
     </row>
     <row r="392" spans="1:14">
       <c r="A392" s="1">
-        <v>2571</v>
+        <v>390</v>
       </c>
       <c r="B392" t="s">
         <v>13</v>
@@ -20324,7 +20324,7 @@
     </row>
     <row r="393" spans="1:14">
       <c r="A393" s="1">
-        <v>2572</v>
+        <v>391</v>
       </c>
       <c r="B393" t="s">
         <v>13</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="394" spans="1:14">
       <c r="A394" s="1">
-        <v>2573</v>
+        <v>392</v>
       </c>
       <c r="B394" t="s">
         <v>13</v>
@@ -20394,7 +20394,7 @@
     </row>
     <row r="395" spans="1:14">
       <c r="A395" s="1">
-        <v>2574</v>
+        <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>13</v>
@@ -20429,7 +20429,7 @@
     </row>
     <row r="396" spans="1:14">
       <c r="A396" s="1">
-        <v>2575</v>
+        <v>394</v>
       </c>
       <c r="B396" t="s">
         <v>13</v>
@@ -20464,7 +20464,7 @@
     </row>
     <row r="397" spans="1:14">
       <c r="A397" s="1">
-        <v>2576</v>
+        <v>395</v>
       </c>
       <c r="B397" t="s">
         <v>13</v>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="398" spans="1:14">
       <c r="A398" s="1">
-        <v>2577</v>
+        <v>396</v>
       </c>
       <c r="B398" t="s">
         <v>13</v>
@@ -20540,7 +20540,7 @@
     </row>
     <row r="399" spans="1:14">
       <c r="A399" s="1">
-        <v>2578</v>
+        <v>397</v>
       </c>
       <c r="B399" t="s">
         <v>13</v>
@@ -20575,7 +20575,7 @@
     </row>
     <row r="400" spans="1:14">
       <c r="A400" s="1">
-        <v>2579</v>
+        <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>13</v>
@@ -20610,7 +20610,7 @@
     </row>
     <row r="401" spans="1:14">
       <c r="A401" s="1">
-        <v>2580</v>
+        <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>13</v>
@@ -20645,7 +20645,7 @@
     </row>
     <row r="402" spans="1:14">
       <c r="A402" s="1">
-        <v>2581</v>
+        <v>400</v>
       </c>
       <c r="B402" t="s">
         <v>13</v>
@@ -20680,7 +20680,7 @@
     </row>
     <row r="403" spans="1:14">
       <c r="A403" s="1">
-        <v>2582</v>
+        <v>401</v>
       </c>
       <c r="B403" t="s">
         <v>13</v>
@@ -20715,7 +20715,7 @@
     </row>
     <row r="404" spans="1:14">
       <c r="A404" s="1">
-        <v>2583</v>
+        <v>402</v>
       </c>
       <c r="B404" t="s">
         <v>13</v>
@@ -20750,7 +20750,7 @@
     </row>
     <row r="405" spans="1:14">
       <c r="A405" s="1">
-        <v>2584</v>
+        <v>403</v>
       </c>
       <c r="B405" t="s">
         <v>13</v>
@@ -20785,7 +20785,7 @@
     </row>
     <row r="406" spans="1:14">
       <c r="A406" s="1">
-        <v>2585</v>
+        <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>13</v>
@@ -20820,7 +20820,7 @@
     </row>
     <row r="407" spans="1:14">
       <c r="A407" s="1">
-        <v>2694</v>
+        <v>405</v>
       </c>
       <c r="B407" t="s">
         <v>13</v>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="408" spans="1:14">
       <c r="A408" s="1">
-        <v>2695</v>
+        <v>406</v>
       </c>
       <c r="B408" t="s">
         <v>13</v>
@@ -20893,7 +20893,7 @@
     </row>
     <row r="409" spans="1:14">
       <c r="A409" s="1">
-        <v>2696</v>
+        <v>407</v>
       </c>
       <c r="B409" t="s">
         <v>13</v>
@@ -20928,7 +20928,7 @@
     </row>
     <row r="410" spans="1:14">
       <c r="A410" s="1">
-        <v>2697</v>
+        <v>408</v>
       </c>
       <c r="B410" t="s">
         <v>13</v>
@@ -20963,7 +20963,7 @@
     </row>
     <row r="411" spans="1:14">
       <c r="A411" s="1">
-        <v>2698</v>
+        <v>409</v>
       </c>
       <c r="B411" t="s">
         <v>13</v>
@@ -21001,7 +21001,7 @@
     </row>
     <row r="412" spans="1:14">
       <c r="A412" s="1">
-        <v>2699</v>
+        <v>410</v>
       </c>
       <c r="B412" t="s">
         <v>13</v>
@@ -21036,7 +21036,7 @@
     </row>
     <row r="413" spans="1:14">
       <c r="A413" s="1">
-        <v>2700</v>
+        <v>411</v>
       </c>
       <c r="B413" t="s">
         <v>13</v>
@@ -21071,7 +21071,7 @@
     </row>
     <row r="414" spans="1:14">
       <c r="A414" s="1">
-        <v>2701</v>
+        <v>412</v>
       </c>
       <c r="B414" t="s">
         <v>13</v>
@@ -21106,7 +21106,7 @@
     </row>
     <row r="415" spans="1:14">
       <c r="A415" s="1">
-        <v>2702</v>
+        <v>413</v>
       </c>
       <c r="B415" t="s">
         <v>13</v>
@@ -21144,7 +21144,7 @@
     </row>
     <row r="416" spans="1:14">
       <c r="A416" s="1">
-        <v>2703</v>
+        <v>414</v>
       </c>
       <c r="B416" t="s">
         <v>13</v>
@@ -21182,7 +21182,7 @@
     </row>
     <row r="417" spans="1:14">
       <c r="A417" s="1">
-        <v>2704</v>
+        <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>13</v>
@@ -21220,7 +21220,7 @@
     </row>
     <row r="418" spans="1:14">
       <c r="A418" s="1">
-        <v>2705</v>
+        <v>416</v>
       </c>
       <c r="B418" t="s">
         <v>13</v>
@@ -21255,7 +21255,7 @@
     </row>
     <row r="419" spans="1:14">
       <c r="A419" s="1">
-        <v>2706</v>
+        <v>417</v>
       </c>
       <c r="B419" t="s">
         <v>13</v>
@@ -21290,7 +21290,7 @@
     </row>
     <row r="420" spans="1:14">
       <c r="A420" s="1">
-        <v>2707</v>
+        <v>418</v>
       </c>
       <c r="B420" t="s">
         <v>13</v>
@@ -21325,7 +21325,7 @@
     </row>
     <row r="421" spans="1:14">
       <c r="A421" s="1">
-        <v>2708</v>
+        <v>419</v>
       </c>
       <c r="B421" t="s">
         <v>13</v>
@@ -21363,7 +21363,7 @@
     </row>
     <row r="422" spans="1:14">
       <c r="A422" s="1">
-        <v>2709</v>
+        <v>420</v>
       </c>
       <c r="B422" t="s">
         <v>13</v>
@@ -21401,7 +21401,7 @@
     </row>
     <row r="423" spans="1:14">
       <c r="A423" s="1">
-        <v>2803</v>
+        <v>421</v>
       </c>
       <c r="B423" t="s">
         <v>13</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="424" spans="1:14">
       <c r="A424" s="1">
-        <v>2804</v>
+        <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>13</v>
@@ -21474,7 +21474,7 @@
     </row>
     <row r="425" spans="1:14">
       <c r="A425" s="1">
-        <v>2805</v>
+        <v>423</v>
       </c>
       <c r="B425" t="s">
         <v>13</v>
@@ -21512,7 +21512,7 @@
     </row>
     <row r="426" spans="1:14">
       <c r="A426" s="1">
-        <v>2806</v>
+        <v>424</v>
       </c>
       <c r="B426" t="s">
         <v>13</v>
@@ -21550,7 +21550,7 @@
     </row>
     <row r="427" spans="1:14">
       <c r="A427" s="1">
-        <v>2807</v>
+        <v>425</v>
       </c>
       <c r="B427" t="s">
         <v>13</v>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="428" spans="1:14">
       <c r="A428" s="1">
-        <v>2808</v>
+        <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>13</v>
@@ -21620,7 +21620,7 @@
     </row>
     <row r="429" spans="1:14">
       <c r="A429" s="1">
-        <v>2809</v>
+        <v>427</v>
       </c>
       <c r="B429" t="s">
         <v>13</v>
@@ -21655,7 +21655,7 @@
     </row>
     <row r="430" spans="1:14">
       <c r="A430" s="1">
-        <v>2810</v>
+        <v>428</v>
       </c>
       <c r="B430" t="s">
         <v>13</v>
@@ -21690,7 +21690,7 @@
     </row>
     <row r="431" spans="1:14">
       <c r="A431" s="1">
-        <v>2811</v>
+        <v>429</v>
       </c>
       <c r="B431" t="s">
         <v>13</v>
@@ -21728,7 +21728,7 @@
     </row>
     <row r="432" spans="1:14">
       <c r="A432" s="1">
-        <v>2812</v>
+        <v>430</v>
       </c>
       <c r="B432" t="s">
         <v>13</v>
@@ -21766,7 +21766,7 @@
     </row>
     <row r="433" spans="1:14">
       <c r="A433" s="1">
-        <v>2813</v>
+        <v>431</v>
       </c>
       <c r="B433" t="s">
         <v>13</v>
@@ -21804,7 +21804,7 @@
     </row>
     <row r="434" spans="1:14">
       <c r="A434" s="1">
-        <v>2814</v>
+        <v>432</v>
       </c>
       <c r="B434" t="s">
         <v>13</v>
@@ -21842,7 +21842,7 @@
     </row>
     <row r="435" spans="1:14">
       <c r="A435" s="1">
-        <v>2815</v>
+        <v>433</v>
       </c>
       <c r="B435" t="s">
         <v>13</v>
@@ -21880,7 +21880,7 @@
     </row>
     <row r="436" spans="1:14">
       <c r="A436" s="1">
-        <v>2816</v>
+        <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>13</v>
@@ -21918,7 +21918,7 @@
     </row>
     <row r="437" spans="1:14">
       <c r="A437" s="1">
-        <v>2817</v>
+        <v>435</v>
       </c>
       <c r="B437" t="s">
         <v>13</v>
@@ -21956,7 +21956,7 @@
     </row>
     <row r="438" spans="1:14">
       <c r="A438" s="1">
-        <v>2849</v>
+        <v>436</v>
       </c>
       <c r="B438" t="s">
         <v>13</v>
@@ -21994,7 +21994,7 @@
     </row>
     <row r="439" spans="1:14">
       <c r="A439" s="1">
-        <v>2926</v>
+        <v>437</v>
       </c>
       <c r="B439" t="s">
         <v>13</v>
@@ -22029,7 +22029,7 @@
     </row>
     <row r="440" spans="1:14">
       <c r="A440" s="1">
-        <v>2945</v>
+        <v>438</v>
       </c>
       <c r="B440" t="s">
         <v>13</v>
@@ -22067,7 +22067,7 @@
     </row>
     <row r="441" spans="1:14">
       <c r="A441" s="1">
-        <v>2946</v>
+        <v>439</v>
       </c>
       <c r="B441" t="s">
         <v>13</v>
@@ -22105,7 +22105,7 @@
     </row>
     <row r="442" spans="1:14">
       <c r="A442" s="1">
-        <v>2947</v>
+        <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>13</v>
@@ -22143,7 +22143,7 @@
     </row>
     <row r="443" spans="1:14">
       <c r="A443" s="1">
-        <v>2948</v>
+        <v>441</v>
       </c>
       <c r="B443" t="s">
         <v>13</v>
@@ -22181,7 +22181,7 @@
     </row>
     <row r="444" spans="1:14">
       <c r="A444" s="1">
-        <v>2949</v>
+        <v>442</v>
       </c>
       <c r="B444" t="s">
         <v>13</v>
@@ -22219,7 +22219,7 @@
     </row>
     <row r="445" spans="1:14">
       <c r="A445" s="1">
-        <v>2950</v>
+        <v>443</v>
       </c>
       <c r="B445" t="s">
         <v>13</v>
@@ -22257,7 +22257,7 @@
     </row>
     <row r="446" spans="1:14">
       <c r="A446" s="1">
-        <v>2951</v>
+        <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>13</v>
@@ -22295,7 +22295,7 @@
     </row>
     <row r="447" spans="1:14">
       <c r="A447" s="1">
-        <v>2952</v>
+        <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>13</v>
@@ -22330,7 +22330,7 @@
     </row>
     <row r="448" spans="1:14">
       <c r="A448" s="1">
-        <v>2953</v>
+        <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>13</v>
@@ -22368,7 +22368,7 @@
     </row>
     <row r="449" spans="1:14">
       <c r="A449" s="1">
-        <v>2954</v>
+        <v>447</v>
       </c>
       <c r="B449" t="s">
         <v>13</v>
@@ -22406,7 +22406,7 @@
     </row>
     <row r="450" spans="1:14">
       <c r="A450" s="1">
-        <v>2955</v>
+        <v>448</v>
       </c>
       <c r="B450" t="s">
         <v>13</v>
@@ -22444,7 +22444,7 @@
     </row>
     <row r="451" spans="1:14">
       <c r="A451" s="1">
-        <v>2956</v>
+        <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>13</v>
@@ -22482,7 +22482,7 @@
     </row>
     <row r="452" spans="1:14">
       <c r="A452" s="1">
-        <v>2957</v>
+        <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>13</v>
@@ -22517,7 +22517,7 @@
     </row>
     <row r="453" spans="1:14">
       <c r="A453" s="1">
-        <v>2958</v>
+        <v>451</v>
       </c>
       <c r="B453" t="s">
         <v>13</v>
@@ -22555,7 +22555,7 @@
     </row>
     <row r="454" spans="1:14">
       <c r="A454" s="1">
-        <v>2959</v>
+        <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>13</v>
@@ -22593,7 +22593,7 @@
     </row>
     <row r="455" spans="1:14">
       <c r="A455" s="1">
-        <v>2960</v>
+        <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>13</v>
@@ -22631,7 +22631,7 @@
     </row>
     <row r="456" spans="1:14">
       <c r="A456" s="1">
-        <v>2961</v>
+        <v>454</v>
       </c>
       <c r="B456" t="s">
         <v>13</v>
@@ -22669,7 +22669,7 @@
     </row>
     <row r="457" spans="1:14">
       <c r="A457" s="1">
-        <v>2962</v>
+        <v>455</v>
       </c>
       <c r="B457" t="s">
         <v>13</v>
@@ -22707,7 +22707,7 @@
     </row>
     <row r="458" spans="1:14">
       <c r="A458" s="1">
-        <v>2963</v>
+        <v>456</v>
       </c>
       <c r="B458" t="s">
         <v>13</v>
@@ -22745,7 +22745,7 @@
     </row>
     <row r="459" spans="1:14">
       <c r="A459" s="1">
-        <v>2964</v>
+        <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>13</v>
@@ -22783,7 +22783,7 @@
     </row>
     <row r="460" spans="1:14">
       <c r="A460" s="1">
-        <v>2965</v>
+        <v>458</v>
       </c>
       <c r="B460" t="s">
         <v>13</v>
@@ -22821,7 +22821,7 @@
     </row>
     <row r="461" spans="1:14">
       <c r="A461" s="1">
-        <v>2966</v>
+        <v>459</v>
       </c>
       <c r="B461" t="s">
         <v>13</v>
@@ -22859,7 +22859,7 @@
     </row>
     <row r="462" spans="1:14">
       <c r="A462" s="1">
-        <v>2967</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>13</v>
@@ -22897,7 +22897,7 @@
     </row>
     <row r="463" spans="1:14">
       <c r="A463" s="1">
-        <v>2968</v>
+        <v>461</v>
       </c>
       <c r="B463" t="s">
         <v>13</v>
@@ -22935,7 +22935,7 @@
     </row>
     <row r="464" spans="1:14">
       <c r="A464" s="1">
-        <v>2969</v>
+        <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>13</v>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="465" spans="1:14">
       <c r="A465" s="1">
-        <v>2970</v>
+        <v>463</v>
       </c>
       <c r="B465" t="s">
         <v>13</v>
@@ -23011,7 +23011,7 @@
     </row>
     <row r="466" spans="1:14">
       <c r="A466" s="1">
-        <v>2971</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>13</v>
@@ -23049,7 +23049,7 @@
     </row>
     <row r="467" spans="1:14">
       <c r="A467" s="1">
-        <v>2972</v>
+        <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>13</v>
@@ -23087,7 +23087,7 @@
     </row>
     <row r="468" spans="1:14">
       <c r="A468" s="1">
-        <v>2973</v>
+        <v>466</v>
       </c>
       <c r="B468" t="s">
         <v>13</v>
@@ -23125,7 +23125,7 @@
     </row>
     <row r="469" spans="1:14">
       <c r="A469" s="1">
-        <v>2974</v>
+        <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>13</v>
@@ -23163,7 +23163,7 @@
     </row>
     <row r="470" spans="1:14">
       <c r="A470" s="1">
-        <v>2975</v>
+        <v>468</v>
       </c>
       <c r="B470" t="s">
         <v>13</v>
@@ -23201,7 +23201,7 @@
     </row>
     <row r="471" spans="1:14">
       <c r="A471" s="1">
-        <v>2976</v>
+        <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>13</v>
@@ -23239,7 +23239,7 @@
     </row>
     <row r="472" spans="1:14">
       <c r="A472" s="1">
-        <v>2977</v>
+        <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>13</v>
@@ -23277,7 +23277,7 @@
     </row>
     <row r="473" spans="1:14">
       <c r="A473" s="1">
-        <v>2978</v>
+        <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>13</v>
@@ -23315,7 +23315,7 @@
     </row>
     <row r="474" spans="1:14">
       <c r="A474" s="1">
-        <v>2979</v>
+        <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>13</v>
@@ -23353,7 +23353,7 @@
     </row>
     <row r="475" spans="1:14">
       <c r="A475" s="1">
-        <v>2980</v>
+        <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>13</v>
@@ -23391,7 +23391,7 @@
     </row>
     <row r="476" spans="1:14">
       <c r="A476" s="1">
-        <v>2981</v>
+        <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>13</v>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="477" spans="1:14">
       <c r="A477" s="1">
-        <v>2982</v>
+        <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>13</v>
@@ -23467,7 +23467,7 @@
     </row>
     <row r="478" spans="1:14">
       <c r="A478" s="1">
-        <v>2983</v>
+        <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>13</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="479" spans="1:14">
       <c r="A479" s="1">
-        <v>2984</v>
+        <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>13</v>
@@ -23543,7 +23543,7 @@
     </row>
     <row r="480" spans="1:14">
       <c r="A480" s="1">
-        <v>2985</v>
+        <v>478</v>
       </c>
       <c r="B480" t="s">
         <v>13</v>
@@ -23581,7 +23581,7 @@
     </row>
     <row r="481" spans="1:14">
       <c r="A481" s="1">
-        <v>2986</v>
+        <v>479</v>
       </c>
       <c r="B481" t="s">
         <v>13</v>
@@ -23619,7 +23619,7 @@
     </row>
     <row r="482" spans="1:14">
       <c r="A482" s="1">
-        <v>2987</v>
+        <v>480</v>
       </c>
       <c r="B482" t="s">
         <v>13</v>
@@ -23657,7 +23657,7 @@
     </row>
     <row r="483" spans="1:14">
       <c r="A483" s="1">
-        <v>2988</v>
+        <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>13</v>
@@ -23695,7 +23695,7 @@
     </row>
     <row r="484" spans="1:14">
       <c r="A484" s="1">
-        <v>2989</v>
+        <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>13</v>
@@ -23733,7 +23733,7 @@
     </row>
     <row r="485" spans="1:14">
       <c r="A485" s="1">
-        <v>2990</v>
+        <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>13</v>
@@ -23771,7 +23771,7 @@
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="1">
-        <v>2991</v>
+        <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>13</v>
@@ -23809,7 +23809,7 @@
     </row>
     <row r="487" spans="1:14">
       <c r="A487" s="1">
-        <v>2992</v>
+        <v>485</v>
       </c>
       <c r="B487" t="s">
         <v>13</v>
@@ -23847,7 +23847,7 @@
     </row>
     <row r="488" spans="1:14">
       <c r="A488" s="1">
-        <v>2993</v>
+        <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>13</v>
@@ -23885,7 +23885,7 @@
     </row>
     <row r="489" spans="1:14">
       <c r="A489" s="1">
-        <v>2994</v>
+        <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>13</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="490" spans="1:14">
       <c r="A490" s="1">
-        <v>2995</v>
+        <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>13</v>
@@ -23961,7 +23961,7 @@
     </row>
     <row r="491" spans="1:14">
       <c r="A491" s="1">
-        <v>2996</v>
+        <v>489</v>
       </c>
       <c r="B491" t="s">
         <v>13</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="492" spans="1:14">
       <c r="A492" s="1">
-        <v>2997</v>
+        <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>13</v>
@@ -24037,7 +24037,7 @@
     </row>
     <row r="493" spans="1:14">
       <c r="A493" s="1">
-        <v>2998</v>
+        <v>491</v>
       </c>
       <c r="B493" t="s">
         <v>13</v>
@@ -24075,7 +24075,7 @@
     </row>
     <row r="494" spans="1:14">
       <c r="A494" s="1">
-        <v>2999</v>
+        <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>13</v>
@@ -24113,7 +24113,7 @@
     </row>
     <row r="495" spans="1:14">
       <c r="A495" s="1">
-        <v>3000</v>
+        <v>493</v>
       </c>
       <c r="B495" t="s">
         <v>13</v>
@@ -24151,7 +24151,7 @@
     </row>
     <row r="496" spans="1:14">
       <c r="A496" s="1">
-        <v>3001</v>
+        <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>13</v>
@@ -24186,7 +24186,7 @@
     </row>
     <row r="497" spans="1:14">
       <c r="A497" s="1">
-        <v>3002</v>
+        <v>495</v>
       </c>
       <c r="B497" t="s">
         <v>13</v>
@@ -24224,7 +24224,7 @@
     </row>
     <row r="498" spans="1:14">
       <c r="A498" s="1">
-        <v>3003</v>
+        <v>496</v>
       </c>
       <c r="B498" t="s">
         <v>13</v>
@@ -24262,7 +24262,7 @@
     </row>
     <row r="499" spans="1:14">
       <c r="A499" s="1">
-        <v>3004</v>
+        <v>497</v>
       </c>
       <c r="B499" t="s">
         <v>13</v>
@@ -24300,7 +24300,7 @@
     </row>
     <row r="500" spans="1:14">
       <c r="A500" s="1">
-        <v>3016</v>
+        <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>13</v>
@@ -24338,7 +24338,7 @@
     </row>
     <row r="501" spans="1:14">
       <c r="A501" s="1">
-        <v>3017</v>
+        <v>499</v>
       </c>
       <c r="B501" t="s">
         <v>13</v>
@@ -24376,7 +24376,7 @@
     </row>
     <row r="502" spans="1:14">
       <c r="A502" s="1">
-        <v>3018</v>
+        <v>500</v>
       </c>
       <c r="B502" t="s">
         <v>13</v>
@@ -24414,7 +24414,7 @@
     </row>
     <row r="503" spans="1:14">
       <c r="A503" s="1">
-        <v>3019</v>
+        <v>501</v>
       </c>
       <c r="B503" t="s">
         <v>13</v>
@@ -24449,7 +24449,7 @@
     </row>
     <row r="504" spans="1:14">
       <c r="A504" s="1">
-        <v>3020</v>
+        <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>13</v>
@@ -24487,7 +24487,7 @@
     </row>
     <row r="505" spans="1:14">
       <c r="A505" s="1">
-        <v>3021</v>
+        <v>503</v>
       </c>
       <c r="B505" t="s">
         <v>13</v>
@@ -24525,7 +24525,7 @@
     </row>
     <row r="506" spans="1:14">
       <c r="A506" s="1">
-        <v>3022</v>
+        <v>504</v>
       </c>
       <c r="B506" t="s">
         <v>13</v>
@@ -24563,7 +24563,7 @@
     </row>
     <row r="507" spans="1:14">
       <c r="A507" s="1">
-        <v>3023</v>
+        <v>505</v>
       </c>
       <c r="B507" t="s">
         <v>13</v>
@@ -24601,7 +24601,7 @@
     </row>
     <row r="508" spans="1:14">
       <c r="A508" s="1">
-        <v>3024</v>
+        <v>506</v>
       </c>
       <c r="B508" t="s">
         <v>13</v>
@@ -24639,7 +24639,7 @@
     </row>
     <row r="509" spans="1:14">
       <c r="A509" s="1">
-        <v>3025</v>
+        <v>507</v>
       </c>
       <c r="B509" t="s">
         <v>13</v>
@@ -24677,7 +24677,7 @@
     </row>
     <row r="510" spans="1:14">
       <c r="A510" s="1">
-        <v>3026</v>
+        <v>508</v>
       </c>
       <c r="B510" t="s">
         <v>13</v>
@@ -24715,7 +24715,7 @@
     </row>
     <row r="511" spans="1:14">
       <c r="A511" s="1">
-        <v>3027</v>
+        <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>13</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="512" spans="1:14">
       <c r="A512" s="1">
-        <v>3028</v>
+        <v>510</v>
       </c>
       <c r="B512" t="s">
         <v>13</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="513" spans="1:14">
       <c r="A513" s="1">
-        <v>3029</v>
+        <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>13</v>
@@ -24829,7 +24829,7 @@
     </row>
     <row r="514" spans="1:14">
       <c r="A514" s="1">
-        <v>3030</v>
+        <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>13</v>
@@ -24867,7 +24867,7 @@
     </row>
     <row r="515" spans="1:14">
       <c r="A515" s="1">
-        <v>3031</v>
+        <v>513</v>
       </c>
       <c r="B515" t="s">
         <v>13</v>
@@ -24905,7 +24905,7 @@
     </row>
     <row r="516" spans="1:14">
       <c r="A516" s="1">
-        <v>3032</v>
+        <v>514</v>
       </c>
       <c r="B516" t="s">
         <v>13</v>
@@ -24943,7 +24943,7 @@
     </row>
     <row r="517" spans="1:14">
       <c r="A517" s="1">
-        <v>3033</v>
+        <v>515</v>
       </c>
       <c r="B517" t="s">
         <v>13</v>
@@ -24981,7 +24981,7 @@
     </row>
     <row r="518" spans="1:14">
       <c r="A518" s="1">
-        <v>3034</v>
+        <v>516</v>
       </c>
       <c r="B518" t="s">
         <v>13</v>
@@ -25019,7 +25019,7 @@
     </row>
     <row r="519" spans="1:14">
       <c r="A519" s="1">
-        <v>3035</v>
+        <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>13</v>
@@ -25057,7 +25057,7 @@
     </row>
     <row r="520" spans="1:14">
       <c r="A520" s="1">
-        <v>3036</v>
+        <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>13</v>
@@ -25095,7 +25095,7 @@
     </row>
     <row r="521" spans="1:14">
       <c r="A521" s="1">
-        <v>3037</v>
+        <v>519</v>
       </c>
       <c r="B521" t="s">
         <v>13</v>
@@ -25130,7 +25130,7 @@
     </row>
     <row r="522" spans="1:14">
       <c r="A522" s="1">
-        <v>3038</v>
+        <v>520</v>
       </c>
       <c r="B522" t="s">
         <v>13</v>
@@ -25168,7 +25168,7 @@
     </row>
     <row r="523" spans="1:14">
       <c r="A523" s="1">
-        <v>3041</v>
+        <v>521</v>
       </c>
       <c r="B523" t="s">
         <v>13</v>
@@ -25206,7 +25206,7 @@
     </row>
     <row r="524" spans="1:14">
       <c r="A524" s="1">
-        <v>3042</v>
+        <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>13</v>
@@ -25244,7 +25244,7 @@
     </row>
     <row r="525" spans="1:14">
       <c r="A525" s="1">
-        <v>3043</v>
+        <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>13</v>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="526" spans="1:14">
       <c r="A526" s="1">
-        <v>3044</v>
+        <v>524</v>
       </c>
       <c r="B526" t="s">
         <v>13</v>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="527" spans="1:14">
       <c r="A527" s="1">
-        <v>3045</v>
+        <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>13</v>
@@ -25358,7 +25358,7 @@
     </row>
     <row r="528" spans="1:14">
       <c r="A528" s="1">
-        <v>3046</v>
+        <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>13</v>
@@ -25396,7 +25396,7 @@
     </row>
     <row r="529" spans="1:14">
       <c r="A529" s="1">
-        <v>3047</v>
+        <v>527</v>
       </c>
       <c r="B529" t="s">
         <v>13</v>
@@ -25434,7 +25434,7 @@
     </row>
     <row r="530" spans="1:14">
       <c r="A530" s="1">
-        <v>3048</v>
+        <v>528</v>
       </c>
       <c r="B530" t="s">
         <v>13</v>
@@ -25472,7 +25472,7 @@
     </row>
     <row r="531" spans="1:14">
       <c r="A531" s="1">
-        <v>3049</v>
+        <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>13</v>
@@ -25507,7 +25507,7 @@
     </row>
     <row r="532" spans="1:14">
       <c r="A532" s="1">
-        <v>3050</v>
+        <v>530</v>
       </c>
       <c r="B532" t="s">
         <v>13</v>
@@ -25545,7 +25545,7 @@
     </row>
     <row r="533" spans="1:14">
       <c r="A533" s="1">
-        <v>3051</v>
+        <v>531</v>
       </c>
       <c r="B533" t="s">
         <v>13</v>
@@ -25583,7 +25583,7 @@
     </row>
     <row r="534" spans="1:14">
       <c r="A534" s="1">
-        <v>3052</v>
+        <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>13</v>
@@ -25621,7 +25621,7 @@
     </row>
     <row r="535" spans="1:14">
       <c r="A535" s="1">
-        <v>3053</v>
+        <v>533</v>
       </c>
       <c r="B535" t="s">
         <v>13</v>
@@ -25659,7 +25659,7 @@
     </row>
     <row r="536" spans="1:14">
       <c r="A536" s="1">
-        <v>3054</v>
+        <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>13</v>
@@ -25697,7 +25697,7 @@
     </row>
     <row r="537" spans="1:14">
       <c r="A537" s="1">
-        <v>3055</v>
+        <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>13</v>
@@ -25735,7 +25735,7 @@
     </row>
     <row r="538" spans="1:14">
       <c r="A538" s="1">
-        <v>3056</v>
+        <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>13</v>
@@ -25773,7 +25773,7 @@
     </row>
     <row r="539" spans="1:14">
       <c r="A539" s="1">
-        <v>3057</v>
+        <v>537</v>
       </c>
       <c r="B539" t="s">
         <v>13</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="540" spans="1:14">
       <c r="A540" s="1">
-        <v>3058</v>
+        <v>538</v>
       </c>
       <c r="B540" t="s">
         <v>13</v>
@@ -25849,7 +25849,7 @@
     </row>
     <row r="541" spans="1:14">
       <c r="A541" s="1">
-        <v>3059</v>
+        <v>539</v>
       </c>
       <c r="B541" t="s">
         <v>13</v>
@@ -25884,7 +25884,7 @@
     </row>
     <row r="542" spans="1:14">
       <c r="A542" s="1">
-        <v>3060</v>
+        <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>13</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="543" spans="1:14">
       <c r="A543" s="1">
-        <v>3061</v>
+        <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>13</v>
@@ -25954,7 +25954,7 @@
     </row>
     <row r="544" spans="1:14">
       <c r="A544" s="1">
-        <v>3062</v>
+        <v>542</v>
       </c>
       <c r="B544" t="s">
         <v>13</v>
@@ -25989,7 +25989,7 @@
     </row>
     <row r="545" spans="1:14">
       <c r="A545" s="1">
-        <v>3063</v>
+        <v>543</v>
       </c>
       <c r="B545" t="s">
         <v>13</v>
@@ -26024,7 +26024,7 @@
     </row>
     <row r="546" spans="1:14">
       <c r="A546" s="1">
-        <v>3064</v>
+        <v>544</v>
       </c>
       <c r="B546" t="s">
         <v>13</v>
@@ -26062,7 +26062,7 @@
     </row>
     <row r="547" spans="1:14">
       <c r="A547" s="1">
-        <v>3065</v>
+        <v>545</v>
       </c>
       <c r="B547" t="s">
         <v>13</v>
@@ -26100,7 +26100,7 @@
     </row>
     <row r="548" spans="1:14">
       <c r="A548" s="1">
-        <v>3066</v>
+        <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>13</v>
@@ -26138,7 +26138,7 @@
     </row>
     <row r="549" spans="1:14">
       <c r="A549" s="1">
-        <v>3067</v>
+        <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>13</v>
@@ -26173,7 +26173,7 @@
     </row>
     <row r="550" spans="1:14">
       <c r="A550" s="1">
-        <v>3068</v>
+        <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>13</v>
@@ -26211,7 +26211,7 @@
     </row>
     <row r="551" spans="1:14">
       <c r="A551" s="1">
-        <v>3069</v>
+        <v>549</v>
       </c>
       <c r="B551" t="s">
         <v>13</v>
@@ -26249,7 +26249,7 @@
     </row>
     <row r="552" spans="1:14">
       <c r="A552" s="1">
-        <v>3070</v>
+        <v>550</v>
       </c>
       <c r="B552" t="s">
         <v>13</v>
@@ -26287,7 +26287,7 @@
     </row>
     <row r="553" spans="1:14">
       <c r="A553" s="1">
-        <v>3071</v>
+        <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>13</v>
@@ -26325,7 +26325,7 @@
     </row>
     <row r="554" spans="1:14">
       <c r="A554" s="1">
-        <v>3072</v>
+        <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>13</v>
@@ -26363,7 +26363,7 @@
     </row>
     <row r="555" spans="1:14">
       <c r="A555" s="1">
-        <v>3073</v>
+        <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>13</v>
@@ -26401,7 +26401,7 @@
     </row>
     <row r="556" spans="1:14">
       <c r="A556" s="1">
-        <v>3074</v>
+        <v>554</v>
       </c>
       <c r="B556" t="s">
         <v>13</v>
@@ -26439,7 +26439,7 @@
     </row>
     <row r="557" spans="1:14">
       <c r="A557" s="1">
-        <v>3075</v>
+        <v>555</v>
       </c>
       <c r="B557" t="s">
         <v>13</v>
@@ -26477,7 +26477,7 @@
     </row>
     <row r="558" spans="1:14">
       <c r="A558" s="1">
-        <v>3076</v>
+        <v>556</v>
       </c>
       <c r="B558" t="s">
         <v>13</v>
@@ -26515,7 +26515,7 @@
     </row>
     <row r="559" spans="1:14">
       <c r="A559" s="1">
-        <v>3077</v>
+        <v>557</v>
       </c>
       <c r="B559" t="s">
         <v>13</v>
@@ -26553,7 +26553,7 @@
     </row>
     <row r="560" spans="1:14">
       <c r="A560" s="1">
-        <v>3078</v>
+        <v>558</v>
       </c>
       <c r="B560" t="s">
         <v>13</v>
@@ -26591,7 +26591,7 @@
     </row>
     <row r="561" spans="1:14">
       <c r="A561" s="1">
-        <v>3079</v>
+        <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>13</v>
@@ -26629,7 +26629,7 @@
     </row>
     <row r="562" spans="1:14">
       <c r="A562" s="1">
-        <v>3080</v>
+        <v>560</v>
       </c>
       <c r="B562" t="s">
         <v>13</v>
@@ -26667,7 +26667,7 @@
     </row>
     <row r="563" spans="1:14">
       <c r="A563" s="1">
-        <v>3081</v>
+        <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>13</v>
@@ -26705,7 +26705,7 @@
     </row>
     <row r="564" spans="1:14">
       <c r="A564" s="1">
-        <v>3082</v>
+        <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>13</v>
@@ -26743,7 +26743,7 @@
     </row>
     <row r="565" spans="1:14">
       <c r="A565" s="1">
-        <v>3083</v>
+        <v>563</v>
       </c>
       <c r="B565" t="s">
         <v>13</v>
@@ -26781,7 +26781,7 @@
     </row>
     <row r="566" spans="1:14">
       <c r="A566" s="1">
-        <v>3084</v>
+        <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>13</v>
@@ -26819,7 +26819,7 @@
     </row>
     <row r="567" spans="1:14">
       <c r="A567" s="1">
-        <v>3085</v>
+        <v>565</v>
       </c>
       <c r="B567" t="s">
         <v>13</v>
@@ -26857,7 +26857,7 @@
     </row>
     <row r="568" spans="1:14">
       <c r="A568" s="1">
-        <v>3086</v>
+        <v>566</v>
       </c>
       <c r="B568" t="s">
         <v>13</v>
@@ -26895,7 +26895,7 @@
     </row>
     <row r="569" spans="1:14">
       <c r="A569" s="1">
-        <v>3087</v>
+        <v>567</v>
       </c>
       <c r="B569" t="s">
         <v>13</v>
@@ -26933,7 +26933,7 @@
     </row>
     <row r="570" spans="1:14">
       <c r="A570" s="1">
-        <v>3088</v>
+        <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>13</v>
@@ -26971,7 +26971,7 @@
     </row>
     <row r="571" spans="1:14">
       <c r="A571" s="1">
-        <v>3089</v>
+        <v>569</v>
       </c>
       <c r="B571" t="s">
         <v>13</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="572" spans="1:14">
       <c r="A572" s="1">
-        <v>3398</v>
+        <v>570</v>
       </c>
       <c r="B572" t="s">
         <v>13</v>
@@ -27044,7 +27044,7 @@
     </row>
     <row r="573" spans="1:14">
       <c r="A573" s="1">
-        <v>3399</v>
+        <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>13</v>
@@ -27079,7 +27079,7 @@
     </row>
     <row r="574" spans="1:14">
       <c r="A574" s="1">
-        <v>3400</v>
+        <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>13</v>
@@ -27114,7 +27114,7 @@
     </row>
     <row r="575" spans="1:14">
       <c r="A575" s="1">
-        <v>3401</v>
+        <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>13</v>
@@ -27149,7 +27149,7 @@
     </row>
     <row r="576" spans="1:14">
       <c r="A576" s="1">
-        <v>3402</v>
+        <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>13</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="577" spans="1:14">
       <c r="A577" s="1">
-        <v>3403</v>
+        <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>13</v>
@@ -27222,7 +27222,7 @@
     </row>
     <row r="578" spans="1:14">
       <c r="A578" s="1">
-        <v>3404</v>
+        <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>13</v>
@@ -27257,7 +27257,7 @@
     </row>
     <row r="579" spans="1:14">
       <c r="A579" s="1">
-        <v>3405</v>
+        <v>577</v>
       </c>
       <c r="B579" t="s">
         <v>13</v>
@@ -27292,7 +27292,7 @@
     </row>
     <row r="580" spans="1:14">
       <c r="A580" s="1">
-        <v>3406</v>
+        <v>578</v>
       </c>
       <c r="B580" t="s">
         <v>13</v>
@@ -27327,7 +27327,7 @@
     </row>
     <row r="581" spans="1:14">
       <c r="A581" s="1">
-        <v>3407</v>
+        <v>579</v>
       </c>
       <c r="B581" t="s">
         <v>13</v>
@@ -27362,7 +27362,7 @@
     </row>
     <row r="582" spans="1:14">
       <c r="A582" s="1">
-        <v>3408</v>
+        <v>580</v>
       </c>
       <c r="B582" t="s">
         <v>13</v>
@@ -27397,7 +27397,7 @@
     </row>
     <row r="583" spans="1:14">
       <c r="A583" s="1">
-        <v>3409</v>
+        <v>581</v>
       </c>
       <c r="B583" t="s">
         <v>13</v>
@@ -27432,7 +27432,7 @@
     </row>
     <row r="584" spans="1:14">
       <c r="A584" s="1">
-        <v>3410</v>
+        <v>582</v>
       </c>
       <c r="B584" t="s">
         <v>13</v>
@@ -27467,7 +27467,7 @@
     </row>
     <row r="585" spans="1:14">
       <c r="A585" s="1">
-        <v>3411</v>
+        <v>583</v>
       </c>
       <c r="B585" t="s">
         <v>13</v>
@@ -27505,7 +27505,7 @@
     </row>
     <row r="586" spans="1:14">
       <c r="A586" s="1">
-        <v>3412</v>
+        <v>584</v>
       </c>
       <c r="B586" t="s">
         <v>13</v>
@@ -27540,7 +27540,7 @@
     </row>
     <row r="587" spans="1:14">
       <c r="A587" s="1">
-        <v>3413</v>
+        <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>13</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="588" spans="1:14">
       <c r="A588" s="1">
-        <v>3414</v>
+        <v>586</v>
       </c>
       <c r="B588" t="s">
         <v>13</v>
@@ -27610,7 +27610,7 @@
     </row>
     <row r="589" spans="1:14">
       <c r="A589" s="1">
-        <v>3470</v>
+        <v>587</v>
       </c>
       <c r="B589" t="s">
         <v>13</v>
@@ -27645,7 +27645,7 @@
     </row>
     <row r="590" spans="1:14">
       <c r="A590" s="1">
-        <v>3471</v>
+        <v>588</v>
       </c>
       <c r="B590" t="s">
         <v>13</v>
@@ -27680,7 +27680,7 @@
     </row>
     <row r="591" spans="1:14">
       <c r="A591" s="1">
-        <v>3472</v>
+        <v>589</v>
       </c>
       <c r="B591" t="s">
         <v>13</v>
@@ -27715,7 +27715,7 @@
     </row>
     <row r="592" spans="1:14">
       <c r="A592" s="1">
-        <v>3473</v>
+        <v>590</v>
       </c>
       <c r="B592" t="s">
         <v>13</v>
@@ -27750,7 +27750,7 @@
     </row>
     <row r="593" spans="1:14">
       <c r="A593" s="1">
-        <v>3474</v>
+        <v>591</v>
       </c>
       <c r="B593" t="s">
         <v>13</v>
@@ -27788,7 +27788,7 @@
     </row>
     <row r="594" spans="1:14">
       <c r="A594" s="1">
-        <v>3475</v>
+        <v>592</v>
       </c>
       <c r="B594" t="s">
         <v>13</v>
@@ -27823,7 +27823,7 @@
     </row>
     <row r="595" spans="1:14">
       <c r="A595" s="1">
-        <v>3494</v>
+        <v>593</v>
       </c>
       <c r="B595" t="s">
         <v>13</v>
@@ -27861,7 +27861,7 @@
     </row>
     <row r="596" spans="1:14">
       <c r="A596" s="1">
-        <v>3525</v>
+        <v>594</v>
       </c>
       <c r="B596" t="s">
         <v>13</v>
@@ -27899,7 +27899,7 @@
     </row>
     <row r="597" spans="1:14">
       <c r="A597" s="1">
-        <v>3526</v>
+        <v>595</v>
       </c>
       <c r="B597" t="s">
         <v>13</v>
@@ -27937,7 +27937,7 @@
     </row>
     <row r="598" spans="1:14">
       <c r="A598" s="1">
-        <v>3527</v>
+        <v>596</v>
       </c>
       <c r="B598" t="s">
         <v>13</v>
@@ -27975,7 +27975,7 @@
     </row>
     <row r="599" spans="1:14">
       <c r="A599" s="1">
-        <v>3528</v>
+        <v>597</v>
       </c>
       <c r="B599" t="s">
         <v>13</v>
@@ -28013,7 +28013,7 @@
     </row>
     <row r="600" spans="1:14">
       <c r="A600" s="1">
-        <v>3529</v>
+        <v>598</v>
       </c>
       <c r="B600" t="s">
         <v>13</v>
@@ -28051,7 +28051,7 @@
     </row>
     <row r="601" spans="1:14">
       <c r="A601" s="1">
-        <v>3530</v>
+        <v>599</v>
       </c>
       <c r="B601" t="s">
         <v>13</v>
@@ -28089,7 +28089,7 @@
     </row>
     <row r="602" spans="1:14">
       <c r="A602" s="1">
-        <v>3531</v>
+        <v>600</v>
       </c>
       <c r="B602" t="s">
         <v>13</v>
@@ -28124,7 +28124,7 @@
     </row>
     <row r="603" spans="1:14">
       <c r="A603" s="1">
-        <v>3532</v>
+        <v>601</v>
       </c>
       <c r="B603" t="s">
         <v>13</v>
@@ -28159,7 +28159,7 @@
     </row>
     <row r="604" spans="1:14">
       <c r="A604" s="1">
-        <v>3533</v>
+        <v>602</v>
       </c>
       <c r="B604" t="s">
         <v>13</v>
@@ -28194,7 +28194,7 @@
     </row>
     <row r="605" spans="1:14">
       <c r="A605" s="1">
-        <v>3534</v>
+        <v>603</v>
       </c>
       <c r="B605" t="s">
         <v>13</v>
@@ -28229,7 +28229,7 @@
     </row>
     <row r="606" spans="1:14">
       <c r="A606" s="1">
-        <v>3535</v>
+        <v>604</v>
       </c>
       <c r="B606" t="s">
         <v>13</v>
@@ -28264,7 +28264,7 @@
     </row>
     <row r="607" spans="1:14">
       <c r="A607" s="1">
-        <v>3536</v>
+        <v>605</v>
       </c>
       <c r="B607" t="s">
         <v>13</v>
@@ -28299,7 +28299,7 @@
     </row>
     <row r="608" spans="1:14">
       <c r="A608" s="1">
-        <v>3537</v>
+        <v>606</v>
       </c>
       <c r="B608" t="s">
         <v>13</v>
@@ -28334,7 +28334,7 @@
     </row>
     <row r="609" spans="1:14">
       <c r="A609" s="1">
-        <v>3538</v>
+        <v>607</v>
       </c>
       <c r="B609" t="s">
         <v>13</v>
@@ -28369,7 +28369,7 @@
     </row>
     <row r="610" spans="1:14">
       <c r="A610" s="1">
-        <v>3539</v>
+        <v>608</v>
       </c>
       <c r="B610" t="s">
         <v>13</v>
@@ -28404,7 +28404,7 @@
     </row>
     <row r="611" spans="1:14">
       <c r="A611" s="1">
-        <v>3540</v>
+        <v>609</v>
       </c>
       <c r="B611" t="s">
         <v>13</v>
@@ -28439,7 +28439,7 @@
     </row>
     <row r="612" spans="1:14">
       <c r="A612" s="1">
-        <v>3541</v>
+        <v>610</v>
       </c>
       <c r="B612" t="s">
         <v>13</v>
@@ -28474,7 +28474,7 @@
     </row>
     <row r="613" spans="1:14">
       <c r="A613" s="1">
-        <v>3542</v>
+        <v>611</v>
       </c>
       <c r="B613" t="s">
         <v>13</v>
@@ -28509,7 +28509,7 @@
     </row>
     <row r="614" spans="1:14">
       <c r="A614" s="1">
-        <v>3543</v>
+        <v>612</v>
       </c>
       <c r="B614" t="s">
         <v>13</v>
@@ -28544,7 +28544,7 @@
     </row>
     <row r="615" spans="1:14">
       <c r="A615" s="1">
-        <v>3544</v>
+        <v>613</v>
       </c>
       <c r="B615" t="s">
         <v>13</v>
@@ -28579,7 +28579,7 @@
     </row>
     <row r="616" spans="1:14">
       <c r="A616" s="1">
-        <v>3640</v>
+        <v>614</v>
       </c>
       <c r="B616" t="s">
         <v>13</v>
@@ -28614,7 +28614,7 @@
     </row>
     <row r="617" spans="1:14">
       <c r="A617" s="1">
-        <v>3641</v>
+        <v>615</v>
       </c>
       <c r="B617" t="s">
         <v>13</v>
@@ -28649,7 +28649,7 @@
     </row>
     <row r="618" spans="1:14">
       <c r="A618" s="1">
-        <v>3642</v>
+        <v>616</v>
       </c>
       <c r="B618" t="s">
         <v>13</v>
@@ -28687,7 +28687,7 @@
     </row>
     <row r="619" spans="1:14">
       <c r="A619" s="1">
-        <v>3663</v>
+        <v>617</v>
       </c>
       <c r="B619" t="s">
         <v>13</v>
@@ -28725,7 +28725,7 @@
     </row>
     <row r="620" spans="1:14">
       <c r="A620" s="1">
-        <v>3664</v>
+        <v>618</v>
       </c>
       <c r="B620" t="s">
         <v>13</v>
@@ -28760,7 +28760,7 @@
     </row>
     <row r="621" spans="1:14">
       <c r="A621" s="1">
-        <v>3665</v>
+        <v>619</v>
       </c>
       <c r="B621" t="s">
         <v>13</v>
@@ -28795,7 +28795,7 @@
     </row>
     <row r="622" spans="1:14">
       <c r="A622" s="1">
-        <v>3666</v>
+        <v>620</v>
       </c>
       <c r="B622" t="s">
         <v>13</v>
@@ -28830,7 +28830,7 @@
     </row>
     <row r="623" spans="1:14">
       <c r="A623" s="1">
-        <v>3667</v>
+        <v>621</v>
       </c>
       <c r="B623" t="s">
         <v>13</v>
@@ -28868,7 +28868,7 @@
     </row>
     <row r="624" spans="1:14">
       <c r="A624" s="1">
-        <v>3668</v>
+        <v>622</v>
       </c>
       <c r="B624" t="s">
         <v>13</v>
@@ -28903,7 +28903,7 @@
     </row>
     <row r="625" spans="1:14">
       <c r="A625" s="1">
-        <v>3669</v>
+        <v>623</v>
       </c>
       <c r="B625" t="s">
         <v>13</v>
@@ -28938,7 +28938,7 @@
     </row>
     <row r="626" spans="1:14">
       <c r="A626" s="1">
-        <v>3670</v>
+        <v>624</v>
       </c>
       <c r="B626" t="s">
         <v>13</v>
@@ -28973,7 +28973,7 @@
     </row>
     <row r="627" spans="1:14">
       <c r="A627" s="1">
-        <v>3671</v>
+        <v>625</v>
       </c>
       <c r="B627" t="s">
         <v>13</v>
@@ -29008,7 +29008,7 @@
     </row>
     <row r="628" spans="1:14">
       <c r="A628" s="1">
-        <v>3672</v>
+        <v>626</v>
       </c>
       <c r="B628" t="s">
         <v>13</v>
@@ -29043,7 +29043,7 @@
     </row>
     <row r="629" spans="1:14">
       <c r="A629" s="1">
-        <v>3673</v>
+        <v>627</v>
       </c>
       <c r="B629" t="s">
         <v>13</v>
@@ -29078,7 +29078,7 @@
     </row>
     <row r="630" spans="1:14">
       <c r="A630" s="1">
-        <v>3674</v>
+        <v>628</v>
       </c>
       <c r="B630" t="s">
         <v>13</v>
@@ -29113,7 +29113,7 @@
     </row>
     <row r="631" spans="1:14">
       <c r="A631" s="1">
-        <v>3675</v>
+        <v>629</v>
       </c>
       <c r="B631" t="s">
         <v>13</v>
@@ -29148,7 +29148,7 @@
     </row>
     <row r="632" spans="1:14">
       <c r="A632" s="1">
-        <v>3676</v>
+        <v>630</v>
       </c>
       <c r="B632" t="s">
         <v>13</v>
@@ -29183,7 +29183,7 @@
     </row>
     <row r="633" spans="1:14">
       <c r="A633" s="1">
-        <v>3677</v>
+        <v>631</v>
       </c>
       <c r="B633" t="s">
         <v>13</v>
@@ -29218,7 +29218,7 @@
     </row>
     <row r="634" spans="1:14">
       <c r="A634" s="1">
-        <v>3678</v>
+        <v>632</v>
       </c>
       <c r="B634" t="s">
         <v>13</v>
@@ -29253,7 +29253,7 @@
     </row>
     <row r="635" spans="1:14">
       <c r="A635" s="1">
-        <v>3679</v>
+        <v>633</v>
       </c>
       <c r="B635" t="s">
         <v>13</v>
@@ -29288,7 +29288,7 @@
     </row>
     <row r="636" spans="1:14">
       <c r="A636" s="1">
-        <v>3680</v>
+        <v>634</v>
       </c>
       <c r="B636" t="s">
         <v>13</v>
@@ -29323,7 +29323,7 @@
     </row>
     <row r="637" spans="1:14">
       <c r="A637" s="1">
-        <v>3681</v>
+        <v>635</v>
       </c>
       <c r="B637" t="s">
         <v>13</v>
@@ -29358,7 +29358,7 @@
     </row>
     <row r="638" spans="1:14">
       <c r="A638" s="1">
-        <v>3692</v>
+        <v>636</v>
       </c>
       <c r="B638" t="s">
         <v>13</v>
@@ -29396,7 +29396,7 @@
     </row>
     <row r="639" spans="1:14">
       <c r="A639" s="1">
-        <v>3693</v>
+        <v>637</v>
       </c>
       <c r="B639" t="s">
         <v>13</v>
@@ -29434,7 +29434,7 @@
     </row>
     <row r="640" spans="1:14">
       <c r="A640" s="1">
-        <v>3714</v>
+        <v>638</v>
       </c>
       <c r="B640" t="s">
         <v>13</v>
@@ -29472,7 +29472,7 @@
     </row>
     <row r="641" spans="1:14">
       <c r="A641" s="1">
-        <v>3715</v>
+        <v>639</v>
       </c>
       <c r="B641" t="s">
         <v>13</v>
@@ -29510,7 +29510,7 @@
     </row>
     <row r="642" spans="1:14">
       <c r="A642" s="1">
-        <v>3716</v>
+        <v>640</v>
       </c>
       <c r="B642" t="s">
         <v>13</v>
@@ -29545,7 +29545,7 @@
     </row>
     <row r="643" spans="1:14">
       <c r="A643" s="1">
-        <v>3717</v>
+        <v>641</v>
       </c>
       <c r="B643" t="s">
         <v>13</v>
@@ -29580,7 +29580,7 @@
     </row>
     <row r="644" spans="1:14">
       <c r="A644" s="1">
-        <v>3718</v>
+        <v>642</v>
       </c>
       <c r="B644" t="s">
         <v>13</v>
@@ -29618,7 +29618,7 @@
     </row>
     <row r="645" spans="1:14">
       <c r="A645" s="1">
-        <v>3719</v>
+        <v>643</v>
       </c>
       <c r="B645" t="s">
         <v>13</v>
@@ -29653,7 +29653,7 @@
     </row>
     <row r="646" spans="1:14">
       <c r="A646" s="1">
-        <v>3720</v>
+        <v>644</v>
       </c>
       <c r="B646" t="s">
         <v>13</v>
@@ -29688,7 +29688,7 @@
     </row>
     <row r="647" spans="1:14">
       <c r="A647" s="1">
-        <v>3721</v>
+        <v>645</v>
       </c>
       <c r="B647" t="s">
         <v>13</v>
@@ -29723,7 +29723,7 @@
     </row>
     <row r="648" spans="1:14">
       <c r="A648" s="1">
-        <v>3722</v>
+        <v>646</v>
       </c>
       <c r="B648" t="s">
         <v>13</v>
@@ -29758,7 +29758,7 @@
     </row>
     <row r="649" spans="1:14">
       <c r="A649" s="1">
-        <v>3778</v>
+        <v>647</v>
       </c>
       <c r="B649" t="s">
         <v>13</v>
@@ -29796,7 +29796,7 @@
     </row>
     <row r="650" spans="1:14">
       <c r="A650" s="1">
-        <v>3779</v>
+        <v>648</v>
       </c>
       <c r="B650" t="s">
         <v>13</v>
@@ -29834,7 +29834,7 @@
     </row>
     <row r="651" spans="1:14">
       <c r="A651" s="1">
-        <v>3780</v>
+        <v>649</v>
       </c>
       <c r="B651" t="s">
         <v>13</v>
@@ -29872,7 +29872,7 @@
     </row>
     <row r="652" spans="1:14">
       <c r="A652" s="1">
-        <v>3781</v>
+        <v>650</v>
       </c>
       <c r="B652" t="s">
         <v>13</v>
@@ -29904,7 +29904,7 @@
     </row>
     <row r="653" spans="1:14">
       <c r="A653" s="1">
-        <v>3786</v>
+        <v>651</v>
       </c>
       <c r="B653" t="s">
         <v>13</v>
@@ -29939,7 +29939,7 @@
     </row>
     <row r="654" spans="1:14">
       <c r="A654" s="1">
-        <v>3787</v>
+        <v>652</v>
       </c>
       <c r="B654" t="s">
         <v>13</v>
@@ -29974,7 +29974,7 @@
     </row>
     <row r="655" spans="1:14">
       <c r="A655" s="1">
-        <v>3788</v>
+        <v>653</v>
       </c>
       <c r="B655" t="s">
         <v>13</v>
@@ -30009,7 +30009,7 @@
     </row>
     <row r="656" spans="1:14">
       <c r="A656" s="1">
-        <v>3789</v>
+        <v>654</v>
       </c>
       <c r="B656" t="s">
         <v>13</v>
@@ -30044,7 +30044,7 @@
     </row>
     <row r="657" spans="1:13">
       <c r="A657" s="1">
-        <v>3790</v>
+        <v>655</v>
       </c>
       <c r="B657" t="s">
         <v>13</v>
@@ -30079,7 +30079,7 @@
     </row>
     <row r="658" spans="1:13">
       <c r="A658" s="1">
-        <v>3791</v>
+        <v>656</v>
       </c>
       <c r="B658" t="s">
         <v>13</v>
@@ -30114,7 +30114,7 @@
     </row>
     <row r="659" spans="1:13">
       <c r="A659" s="1">
-        <v>3792</v>
+        <v>657</v>
       </c>
       <c r="B659" t="s">
         <v>13</v>
@@ -30149,7 +30149,7 @@
     </row>
     <row r="660" spans="1:13">
       <c r="A660" s="1">
-        <v>3793</v>
+        <v>658</v>
       </c>
       <c r="B660" t="s">
         <v>13</v>
@@ -30184,7 +30184,7 @@
     </row>
     <row r="661" spans="1:13">
       <c r="A661" s="1">
-        <v>3794</v>
+        <v>659</v>
       </c>
       <c r="B661" t="s">
         <v>13</v>
@@ -30219,7 +30219,7 @@
     </row>
     <row r="662" spans="1:13">
       <c r="A662" s="1">
-        <v>3795</v>
+        <v>660</v>
       </c>
       <c r="B662" t="s">
         <v>13</v>
@@ -30254,7 +30254,7 @@
     </row>
     <row r="663" spans="1:13">
       <c r="A663" s="1">
-        <v>3796</v>
+        <v>661</v>
       </c>
       <c r="B663" t="s">
         <v>13</v>
@@ -30289,7 +30289,7 @@
     </row>
     <row r="664" spans="1:13">
       <c r="A664" s="1">
-        <v>3797</v>
+        <v>662</v>
       </c>
       <c r="B664" t="s">
         <v>13</v>
@@ -30324,7 +30324,7 @@
     </row>
     <row r="665" spans="1:13">
       <c r="A665" s="1">
-        <v>3798</v>
+        <v>663</v>
       </c>
       <c r="B665" t="s">
         <v>13</v>
@@ -30359,7 +30359,7 @@
     </row>
     <row r="666" spans="1:13">
       <c r="A666" s="1">
-        <v>3799</v>
+        <v>664</v>
       </c>
       <c r="B666" t="s">
         <v>13</v>
@@ -30394,7 +30394,7 @@
     </row>
     <row r="667" spans="1:13">
       <c r="A667" s="1">
-        <v>3800</v>
+        <v>665</v>
       </c>
       <c r="B667" t="s">
         <v>13</v>
@@ -30429,7 +30429,7 @@
     </row>
     <row r="668" spans="1:13">
       <c r="A668" s="1">
-        <v>3826</v>
+        <v>666</v>
       </c>
       <c r="B668" t="s">
         <v>13</v>
@@ -30464,7 +30464,7 @@
     </row>
     <row r="669" spans="1:13">
       <c r="A669" s="1">
-        <v>3827</v>
+        <v>667</v>
       </c>
       <c r="B669" t="s">
         <v>13</v>
@@ -30499,7 +30499,7 @@
     </row>
     <row r="670" spans="1:13">
       <c r="A670" s="1">
-        <v>3898</v>
+        <v>668</v>
       </c>
       <c r="B670" t="s">
         <v>13</v>
@@ -30534,7 +30534,7 @@
     </row>
     <row r="671" spans="1:13">
       <c r="A671" s="1">
-        <v>3923</v>
+        <v>669</v>
       </c>
       <c r="B671" t="s">
         <v>13</v>
@@ -30569,7 +30569,7 @@
     </row>
     <row r="672" spans="1:13">
       <c r="A672" s="1">
-        <v>3924</v>
+        <v>670</v>
       </c>
       <c r="B672" t="s">
         <v>13</v>
@@ -30604,7 +30604,7 @@
     </row>
     <row r="673" spans="1:13">
       <c r="A673" s="1">
-        <v>3925</v>
+        <v>671</v>
       </c>
       <c r="B673" t="s">
         <v>13</v>
@@ -30639,7 +30639,7 @@
     </row>
     <row r="674" spans="1:13">
       <c r="A674" s="1">
-        <v>3926</v>
+        <v>672</v>
       </c>
       <c r="B674" t="s">
         <v>13</v>
@@ -30674,7 +30674,7 @@
     </row>
     <row r="675" spans="1:13">
       <c r="A675" s="1">
-        <v>3927</v>
+        <v>673</v>
       </c>
       <c r="B675" t="s">
         <v>13</v>
@@ -30709,7 +30709,7 @@
     </row>
     <row r="676" spans="1:13">
       <c r="A676" s="1">
-        <v>3928</v>
+        <v>674</v>
       </c>
       <c r="B676" t="s">
         <v>13</v>
@@ -30744,7 +30744,7 @@
     </row>
     <row r="677" spans="1:13">
       <c r="A677" s="1">
-        <v>3929</v>
+        <v>675</v>
       </c>
       <c r="B677" t="s">
         <v>13</v>
@@ -30779,7 +30779,7 @@
     </row>
     <row r="678" spans="1:13">
       <c r="A678" s="1">
-        <v>3930</v>
+        <v>676</v>
       </c>
       <c r="B678" t="s">
         <v>13</v>
@@ -30814,7 +30814,7 @@
     </row>
     <row r="679" spans="1:13">
       <c r="A679" s="1">
-        <v>3931</v>
+        <v>677</v>
       </c>
       <c r="B679" t="s">
         <v>13</v>
@@ -30849,7 +30849,7 @@
     </row>
     <row r="680" spans="1:13">
       <c r="A680" s="1">
-        <v>3932</v>
+        <v>678</v>
       </c>
       <c r="B680" t="s">
         <v>13</v>
@@ -30884,7 +30884,7 @@
     </row>
     <row r="681" spans="1:13">
       <c r="A681" s="1">
-        <v>3933</v>
+        <v>679</v>
       </c>
       <c r="B681" t="s">
         <v>13</v>
@@ -30919,7 +30919,7 @@
     </row>
     <row r="682" spans="1:13">
       <c r="A682" s="1">
-        <v>3934</v>
+        <v>680</v>
       </c>
       <c r="B682" t="s">
         <v>13</v>
@@ -30954,7 +30954,7 @@
     </row>
     <row r="683" spans="1:13">
       <c r="A683" s="1">
-        <v>3935</v>
+        <v>681</v>
       </c>
       <c r="B683" t="s">
         <v>13</v>
@@ -30989,7 +30989,7 @@
     </row>
     <row r="684" spans="1:13">
       <c r="A684" s="1">
-        <v>3936</v>
+        <v>682</v>
       </c>
       <c r="B684" t="s">
         <v>13</v>
@@ -31024,7 +31024,7 @@
     </row>
     <row r="685" spans="1:13">
       <c r="A685" s="1">
-        <v>3937</v>
+        <v>683</v>
       </c>
       <c r="B685" t="s">
         <v>13</v>
@@ -31059,7 +31059,7 @@
     </row>
     <row r="686" spans="1:13">
       <c r="A686" s="1">
-        <v>3938</v>
+        <v>684</v>
       </c>
       <c r="B686" t="s">
         <v>13</v>
@@ -31094,7 +31094,7 @@
     </row>
     <row r="687" spans="1:13">
       <c r="A687" s="1">
-        <v>3939</v>
+        <v>685</v>
       </c>
       <c r="B687" t="s">
         <v>13</v>
@@ -31129,7 +31129,7 @@
     </row>
     <row r="688" spans="1:13">
       <c r="A688" s="1">
-        <v>3940</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>13</v>
@@ -31164,7 +31164,7 @@
     </row>
     <row r="689" spans="1:13">
       <c r="A689" s="1">
-        <v>3941</v>
+        <v>687</v>
       </c>
       <c r="B689" t="s">
         <v>13</v>
@@ -31199,7 +31199,7 @@
     </row>
     <row r="690" spans="1:13">
       <c r="A690" s="1">
-        <v>3942</v>
+        <v>688</v>
       </c>
       <c r="B690" t="s">
         <v>13</v>
@@ -31234,7 +31234,7 @@
     </row>
     <row r="691" spans="1:13">
       <c r="A691" s="1">
-        <v>3943</v>
+        <v>689</v>
       </c>
       <c r="B691" t="s">
         <v>13</v>
@@ -31269,7 +31269,7 @@
     </row>
     <row r="692" spans="1:13">
       <c r="A692" s="1">
-        <v>3944</v>
+        <v>690</v>
       </c>
       <c r="B692" t="s">
         <v>13</v>
@@ -31304,7 +31304,7 @@
     </row>
     <row r="693" spans="1:13">
       <c r="A693" s="1">
-        <v>3945</v>
+        <v>691</v>
       </c>
       <c r="B693" t="s">
         <v>13</v>
@@ -31339,7 +31339,7 @@
     </row>
     <row r="694" spans="1:13">
       <c r="A694" s="1">
-        <v>3946</v>
+        <v>692</v>
       </c>
       <c r="B694" t="s">
         <v>13</v>
@@ -31374,7 +31374,7 @@
     </row>
     <row r="695" spans="1:13">
       <c r="A695" s="1">
-        <v>3947</v>
+        <v>693</v>
       </c>
       <c r="B695" t="s">
         <v>13</v>
@@ -31409,7 +31409,7 @@
     </row>
     <row r="696" spans="1:13">
       <c r="A696" s="1">
-        <v>3948</v>
+        <v>694</v>
       </c>
       <c r="B696" t="s">
         <v>13</v>
@@ -31444,7 +31444,7 @@
     </row>
     <row r="697" spans="1:13">
       <c r="A697" s="1">
-        <v>3949</v>
+        <v>695</v>
       </c>
       <c r="B697" t="s">
         <v>13</v>
@@ -31479,7 +31479,7 @@
     </row>
     <row r="698" spans="1:13">
       <c r="A698" s="1">
-        <v>3950</v>
+        <v>696</v>
       </c>
       <c r="B698" t="s">
         <v>13</v>
@@ -31514,7 +31514,7 @@
     </row>
     <row r="699" spans="1:13">
       <c r="A699" s="1">
-        <v>3951</v>
+        <v>697</v>
       </c>
       <c r="B699" t="s">
         <v>13</v>
@@ -31549,7 +31549,7 @@
     </row>
     <row r="700" spans="1:13">
       <c r="A700" s="1">
-        <v>3952</v>
+        <v>698</v>
       </c>
       <c r="B700" t="s">
         <v>13</v>
@@ -31584,7 +31584,7 @@
     </row>
     <row r="701" spans="1:13">
       <c r="A701" s="1">
-        <v>3953</v>
+        <v>699</v>
       </c>
       <c r="B701" t="s">
         <v>13</v>
@@ -31619,7 +31619,7 @@
     </row>
     <row r="702" spans="1:13">
       <c r="A702" s="1">
-        <v>3954</v>
+        <v>700</v>
       </c>
       <c r="B702" t="s">
         <v>13</v>
@@ -31654,7 +31654,7 @@
     </row>
     <row r="703" spans="1:13">
       <c r="A703" s="1">
-        <v>3955</v>
+        <v>701</v>
       </c>
       <c r="B703" t="s">
         <v>13</v>
@@ -31689,7 +31689,7 @@
     </row>
     <row r="704" spans="1:13">
       <c r="A704" s="1">
-        <v>3956</v>
+        <v>702</v>
       </c>
       <c r="B704" t="s">
         <v>13</v>
@@ -31724,7 +31724,7 @@
     </row>
     <row r="705" spans="1:14">
       <c r="A705" s="1">
-        <v>3957</v>
+        <v>703</v>
       </c>
       <c r="B705" t="s">
         <v>13</v>
@@ -31759,7 +31759,7 @@
     </row>
     <row r="706" spans="1:14">
       <c r="A706" s="1">
-        <v>3958</v>
+        <v>704</v>
       </c>
       <c r="B706" t="s">
         <v>13</v>
@@ -31794,7 +31794,7 @@
     </row>
     <row r="707" spans="1:14">
       <c r="A707" s="1">
-        <v>3959</v>
+        <v>705</v>
       </c>
       <c r="B707" t="s">
         <v>13</v>
@@ -31829,7 +31829,7 @@
     </row>
     <row r="708" spans="1:14">
       <c r="A708" s="1">
-        <v>3960</v>
+        <v>706</v>
       </c>
       <c r="B708" t="s">
         <v>13</v>
@@ -31864,7 +31864,7 @@
     </row>
     <row r="709" spans="1:14">
       <c r="A709" s="1">
-        <v>3961</v>
+        <v>707</v>
       </c>
       <c r="B709" t="s">
         <v>13</v>
@@ -31899,7 +31899,7 @@
     </row>
     <row r="710" spans="1:14">
       <c r="A710" s="1">
-        <v>3962</v>
+        <v>708</v>
       </c>
       <c r="B710" t="s">
         <v>13</v>
@@ -31931,7 +31931,7 @@
     </row>
     <row r="711" spans="1:14">
       <c r="A711" s="1">
-        <v>3963</v>
+        <v>709</v>
       </c>
       <c r="B711" t="s">
         <v>13</v>
@@ -31963,7 +31963,7 @@
     </row>
     <row r="712" spans="1:14">
       <c r="A712" s="1">
-        <v>3964</v>
+        <v>710</v>
       </c>
       <c r="B712" t="s">
         <v>13</v>
@@ -31995,7 +31995,7 @@
     </row>
     <row r="713" spans="1:14">
       <c r="A713" s="1">
-        <v>3965</v>
+        <v>711</v>
       </c>
       <c r="B713" t="s">
         <v>13</v>
@@ -32027,7 +32027,7 @@
     </row>
     <row r="714" spans="1:14">
       <c r="A714" s="1">
-        <v>3966</v>
+        <v>712</v>
       </c>
       <c r="B714" t="s">
         <v>13</v>
@@ -32059,7 +32059,7 @@
     </row>
     <row r="715" spans="1:14">
       <c r="A715" s="1">
-        <v>3967</v>
+        <v>713</v>
       </c>
       <c r="B715" t="s">
         <v>13</v>
@@ -32091,7 +32091,7 @@
     </row>
     <row r="716" spans="1:14">
       <c r="A716" s="1">
-        <v>3968</v>
+        <v>714</v>
       </c>
       <c r="B716" t="s">
         <v>13</v>
@@ -32123,7 +32123,7 @@
     </row>
     <row r="717" spans="1:14">
       <c r="A717" s="1">
-        <v>4014</v>
+        <v>715</v>
       </c>
       <c r="B717" t="s">
         <v>13</v>
@@ -32161,7 +32161,7 @@
     </row>
     <row r="718" spans="1:14">
       <c r="A718" s="1">
-        <v>4015</v>
+        <v>716</v>
       </c>
       <c r="B718" t="s">
         <v>13</v>
@@ -32199,7 +32199,7 @@
     </row>
     <row r="719" spans="1:14">
       <c r="A719" s="1">
-        <v>4016</v>
+        <v>717</v>
       </c>
       <c r="B719" t="s">
         <v>13</v>
@@ -32237,7 +32237,7 @@
     </row>
     <row r="720" spans="1:14">
       <c r="A720" s="1">
-        <v>4017</v>
+        <v>718</v>
       </c>
       <c r="B720" t="s">
         <v>13</v>
@@ -32275,7 +32275,7 @@
     </row>
     <row r="721" spans="1:14">
       <c r="A721" s="1">
-        <v>4018</v>
+        <v>719</v>
       </c>
       <c r="B721" t="s">
         <v>13</v>
@@ -32313,7 +32313,7 @@
     </row>
     <row r="722" spans="1:14">
       <c r="A722" s="1">
-        <v>4019</v>
+        <v>720</v>
       </c>
       <c r="B722" t="s">
         <v>13</v>
@@ -32351,7 +32351,7 @@
     </row>
     <row r="723" spans="1:14">
       <c r="A723" s="1">
-        <v>4020</v>
+        <v>721</v>
       </c>
       <c r="B723" t="s">
         <v>13</v>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="724" spans="1:14">
       <c r="A724" s="1">
-        <v>4021</v>
+        <v>722</v>
       </c>
       <c r="B724" t="s">
         <v>13</v>
@@ -32427,7 +32427,7 @@
     </row>
     <row r="725" spans="1:14">
       <c r="A725" s="1">
-        <v>4022</v>
+        <v>723</v>
       </c>
       <c r="B725" t="s">
         <v>13</v>
@@ -32465,7 +32465,7 @@
     </row>
     <row r="726" spans="1:14">
       <c r="A726" s="1">
-        <v>4023</v>
+        <v>724</v>
       </c>
       <c r="B726" t="s">
         <v>13</v>
@@ -32503,7 +32503,7 @@
     </row>
     <row r="727" spans="1:14">
       <c r="A727" s="1">
-        <v>4025</v>
+        <v>725</v>
       </c>
       <c r="B727" t="s">
         <v>13</v>
@@ -32538,7 +32538,7 @@
     </row>
     <row r="728" spans="1:14">
       <c r="A728" s="1">
-        <v>4026</v>
+        <v>726</v>
       </c>
       <c r="B728" t="s">
         <v>13</v>
@@ -32573,7 +32573,7 @@
     </row>
     <row r="729" spans="1:14">
       <c r="A729" s="1">
-        <v>4030</v>
+        <v>727</v>
       </c>
       <c r="B729" t="s">
         <v>13</v>
@@ -32608,7 +32608,7 @@
     </row>
     <row r="730" spans="1:14">
       <c r="A730" s="1">
-        <v>4031</v>
+        <v>728</v>
       </c>
       <c r="B730" t="s">
         <v>13</v>
@@ -32643,7 +32643,7 @@
     </row>
     <row r="731" spans="1:14">
       <c r="A731" s="1">
-        <v>4033</v>
+        <v>729</v>
       </c>
       <c r="B731" t="s">
         <v>13</v>
@@ -32681,7 +32681,7 @@
     </row>
     <row r="732" spans="1:14">
       <c r="A732" s="1">
-        <v>4034</v>
+        <v>730</v>
       </c>
       <c r="B732" t="s">
         <v>13</v>
@@ -32719,7 +32719,7 @@
     </row>
     <row r="733" spans="1:14">
       <c r="A733" s="1">
-        <v>4122</v>
+        <v>731</v>
       </c>
       <c r="B733" t="s">
         <v>13</v>
@@ -32757,7 +32757,7 @@
     </row>
     <row r="734" spans="1:14">
       <c r="A734" s="1">
-        <v>4123</v>
+        <v>732</v>
       </c>
       <c r="B734" t="s">
         <v>13</v>
@@ -32795,7 +32795,7 @@
     </row>
     <row r="735" spans="1:14">
       <c r="A735" s="1">
-        <v>4124</v>
+        <v>733</v>
       </c>
       <c r="B735" t="s">
         <v>13</v>
@@ -32833,7 +32833,7 @@
     </row>
     <row r="736" spans="1:14">
       <c r="A736" s="1">
-        <v>4125</v>
+        <v>734</v>
       </c>
       <c r="B736" t="s">
         <v>13</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="737" spans="1:14">
       <c r="A737" s="1">
-        <v>4126</v>
+        <v>735</v>
       </c>
       <c r="B737" t="s">
         <v>13</v>
@@ -32909,7 +32909,7 @@
     </row>
     <row r="738" spans="1:14">
       <c r="A738" s="1">
-        <v>4127</v>
+        <v>736</v>
       </c>
       <c r="B738" t="s">
         <v>13</v>
@@ -32947,7 +32947,7 @@
     </row>
     <row r="739" spans="1:14">
       <c r="A739" s="1">
-        <v>4131</v>
+        <v>737</v>
       </c>
       <c r="B739" t="s">
         <v>13</v>
@@ -32982,7 +32982,7 @@
     </row>
     <row r="740" spans="1:14">
       <c r="A740" s="1">
-        <v>4132</v>
+        <v>738</v>
       </c>
       <c r="B740" t="s">
         <v>13</v>
@@ -33017,7 +33017,7 @@
     </row>
     <row r="741" spans="1:14">
       <c r="A741" s="1">
-        <v>4133</v>
+        <v>739</v>
       </c>
       <c r="B741" t="s">
         <v>13</v>
@@ -33052,7 +33052,7 @@
     </row>
     <row r="742" spans="1:14">
       <c r="A742" s="1">
-        <v>4159</v>
+        <v>740</v>
       </c>
       <c r="B742" t="s">
         <v>13</v>
@@ -33090,7 +33090,7 @@
     </row>
     <row r="743" spans="1:14">
       <c r="A743" s="1">
-        <v>4160</v>
+        <v>741</v>
       </c>
       <c r="B743" t="s">
         <v>13</v>
@@ -33128,7 +33128,7 @@
     </row>
     <row r="744" spans="1:14">
       <c r="A744" s="1">
-        <v>4166</v>
+        <v>742</v>
       </c>
       <c r="B744" t="s">
         <v>13</v>
@@ -33166,7 +33166,7 @@
     </row>
     <row r="745" spans="1:14">
       <c r="A745" s="1">
-        <v>4167</v>
+        <v>743</v>
       </c>
       <c r="B745" t="s">
         <v>13</v>
@@ -33204,7 +33204,7 @@
     </row>
     <row r="746" spans="1:14">
       <c r="A746" s="1">
-        <v>4168</v>
+        <v>744</v>
       </c>
       <c r="B746" t="s">
         <v>13</v>
@@ -33239,7 +33239,7 @@
     </row>
     <row r="747" spans="1:14">
       <c r="A747" s="1">
-        <v>4172</v>
+        <v>745</v>
       </c>
       <c r="B747" t="s">
         <v>13</v>
@@ -33277,7 +33277,7 @@
     </row>
     <row r="748" spans="1:14">
       <c r="A748" s="1">
-        <v>4173</v>
+        <v>746</v>
       </c>
       <c r="B748" t="s">
         <v>13</v>
@@ -33309,7 +33309,7 @@
     </row>
     <row r="749" spans="1:14">
       <c r="A749" s="1">
-        <v>4174</v>
+        <v>747</v>
       </c>
       <c r="B749" t="s">
         <v>13</v>
@@ -33347,7 +33347,7 @@
     </row>
     <row r="750" spans="1:14">
       <c r="A750" s="1">
-        <v>4175</v>
+        <v>748</v>
       </c>
       <c r="B750" t="s">
         <v>13</v>
@@ -33355,7 +33355,7 @@
     </row>
     <row r="751" spans="1:14">
       <c r="A751" s="1">
-        <v>4176</v>
+        <v>749</v>
       </c>
       <c r="B751" t="s">
         <v>13</v>
@@ -33363,7 +33363,7 @@
     </row>
     <row r="752" spans="1:14">
       <c r="A752" s="1">
-        <v>4189</v>
+        <v>750</v>
       </c>
       <c r="B752" t="s">
         <v>13</v>
@@ -33398,7 +33398,7 @@
     </row>
     <row r="753" spans="1:14">
       <c r="A753" s="1">
-        <v>4190</v>
+        <v>751</v>
       </c>
       <c r="B753" t="s">
         <v>13</v>
@@ -33436,7 +33436,7 @@
     </row>
     <row r="754" spans="1:14">
       <c r="A754" s="1">
-        <v>4192</v>
+        <v>752</v>
       </c>
       <c r="B754" t="s">
         <v>13</v>
@@ -33471,7 +33471,7 @@
     </row>
     <row r="755" spans="1:14">
       <c r="A755" s="1">
-        <v>4193</v>
+        <v>753</v>
       </c>
       <c r="B755" t="s">
         <v>13</v>
@@ -33506,7 +33506,7 @@
     </row>
     <row r="756" spans="1:14">
       <c r="A756" s="1">
-        <v>4194</v>
+        <v>754</v>
       </c>
       <c r="B756" t="s">
         <v>13</v>
@@ -33541,7 +33541,7 @@
     </row>
     <row r="757" spans="1:14">
       <c r="A757" s="1">
-        <v>4195</v>
+        <v>755</v>
       </c>
       <c r="B757" t="s">
         <v>13</v>
@@ -33576,7 +33576,7 @@
     </row>
     <row r="758" spans="1:14">
       <c r="A758" s="1">
-        <v>4196</v>
+        <v>756</v>
       </c>
       <c r="B758" t="s">
         <v>13</v>
@@ -33611,7 +33611,7 @@
     </row>
     <row r="759" spans="1:14">
       <c r="A759" s="1">
-        <v>4197</v>
+        <v>757</v>
       </c>
       <c r="B759" t="s">
         <v>13</v>
@@ -33646,7 +33646,7 @@
     </row>
     <row r="760" spans="1:14">
       <c r="A760" s="1">
-        <v>4198</v>
+        <v>758</v>
       </c>
       <c r="B760" t="s">
         <v>13</v>
@@ -33681,7 +33681,7 @@
     </row>
     <row r="761" spans="1:14">
       <c r="A761" s="1">
-        <v>4199</v>
+        <v>759</v>
       </c>
       <c r="B761" t="s">
         <v>13</v>
@@ -33716,7 +33716,7 @@
     </row>
     <row r="762" spans="1:14">
       <c r="A762" s="1">
-        <v>4200</v>
+        <v>760</v>
       </c>
       <c r="B762" t="s">
         <v>13</v>
@@ -33751,7 +33751,7 @@
     </row>
     <row r="763" spans="1:14">
       <c r="A763" s="1">
-        <v>4201</v>
+        <v>761</v>
       </c>
       <c r="B763" t="s">
         <v>13</v>
@@ -33786,7 +33786,7 @@
     </row>
     <row r="764" spans="1:14">
       <c r="A764" s="1">
-        <v>4202</v>
+        <v>762</v>
       </c>
       <c r="B764" t="s">
         <v>13</v>
@@ -33821,7 +33821,7 @@
     </row>
     <row r="765" spans="1:14">
       <c r="A765" s="1">
-        <v>4203</v>
+        <v>763</v>
       </c>
       <c r="B765" t="s">
         <v>13</v>
@@ -33853,7 +33853,7 @@
     </row>
     <row r="766" spans="1:14">
       <c r="A766" s="1">
-        <v>4204</v>
+        <v>764</v>
       </c>
       <c r="B766" t="s">
         <v>13</v>
